--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1556.375698931989</v>
+        <v>1088.276604070632</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1533.988041549687</v>
+        <v>1006.63521149988</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1932.709011378707</v>
+        <v>1058.544851043968</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1540.708451915268</v>
+        <v>1012.379101873995</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1408.518818201423</v>
+        <v>1055.638273347774</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1597.829810320652</v>
+        <v>1056.55253764474</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1552.698021816938</v>
+        <v>1075.636035207129</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1546.268620922207</v>
+        <v>1075.824121076154</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1671.438151131129</v>
+        <v>1059.839946286622</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1886.540207445545</v>
+        <v>1010.546821880952</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1480.300957452865</v>
+        <v>1050.153618357417</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1625.252554493299</v>
+        <v>1052.718113304721</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1758.33789713949</v>
+        <v>1085.657243192305</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1403.079677537113</v>
+        <v>1084.618778415351</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1643.339392471811</v>
+        <v>1029.256599823775</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1689.709471842543</v>
+        <v>1115.676040514278</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1650.293014406422</v>
+        <v>1139.654401232903</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1595.000585740526</v>
+        <v>1103.882753786313</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1565.938043522266</v>
+        <v>1032.301363812897</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1474.314352591865</v>
+        <v>1090.671203589957</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1419.243761352351</v>
+        <v>1008.652561284995</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1819.981572764574</v>
+        <v>969.5573871401014</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1773.734451902108</v>
+        <v>1013.882767910871</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1459.5537409288</v>
+        <v>1008.907900634366</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1597.055230254903</v>
+        <v>1041.353364304203</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1445.882055898016</v>
+        <v>1168.733587177692</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1445.484110614044</v>
+        <v>1001.168196601803</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1526.395060786141</v>
+        <v>1016.217108939396</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1614.166338576236</v>
+        <v>1024.91199680432</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1241.5701860225</v>
+        <v>1067.217586970524</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1611.657220297743</v>
+        <v>1049.188114466519</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1547.743654268704</v>
+        <v>1135.54101413665</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1633.704307927711</v>
+        <v>1063.98370784557</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1523.519343572254</v>
+        <v>1035.564631490023</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1807.800477436699</v>
+        <v>1005.699629783714</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1489.151688875307</v>
+        <v>1021.811316451889</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1532.744625396564</v>
+        <v>1054.972302641746</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1667.576313795721</v>
+        <v>1069.645900443961</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1582.268334155866</v>
+        <v>1036.470493808988</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1658.713551756642</v>
+        <v>1002.739688643116</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1558.874815167054</v>
+        <v>1063.279973036402</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1554.187268869005</v>
+        <v>1040.433664860678</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1514.219342070231</v>
+        <v>1081.528027326953</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1495.314709777497</v>
+        <v>1099.216946084563</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1550.271541980228</v>
+        <v>1116.356353030934</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1549.711436833024</v>
+        <v>1021.050766075015</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1677.357284081925</v>
+        <v>1075.19341725811</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1435.804547285415</v>
+        <v>1065.427521671532</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1338.260216938686</v>
+        <v>1097.876224995415</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1387.127827754862</v>
+        <v>1054.301902588357</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1457.137764715817</v>
+        <v>1047.530560578796</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1522.84658667948</v>
+        <v>1164.919019601924</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1680.344772632329</v>
+        <v>1069.524122723019</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1700.194473805837</v>
+        <v>1108.806663816632</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1568.989260918779</v>
+        <v>1060.238896849776</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1519.568019451895</v>
+        <v>1107.635610335807</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1701.667087488734</v>
+        <v>1019.454933626741</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1327.564965360056</v>
+        <v>1026.605800054013</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1381.169291166367</v>
+        <v>987.5381185527776</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1464.367127074418</v>
+        <v>1043.861835137363</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1389.506899442535</v>
+        <v>1058.906604608221</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1711.083133301152</v>
+        <v>1028.691327347873</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1678.209492293635</v>
+        <v>1094.20285228532</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1513.755087231096</v>
+        <v>1120.689077234109</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1591.58521689438</v>
+        <v>1122.801590486029</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1416.092343153435</v>
+        <v>1133.971125811322</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1431.454909785767</v>
+        <v>1064.137385031797</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1865.675271215788</v>
+        <v>1041.005390864358</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1728.17364966363</v>
+        <v>1105.456482978195</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1487.477992823533</v>
+        <v>1074.385218772043</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1644.565096971805</v>
+        <v>1111.424268027374</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1806.251642732044</v>
+        <v>1097.583457863226</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1438.847166823809</v>
+        <v>1067.107949689937</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1465.278107640195</v>
+        <v>1056.72437281312</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1455.697203029727</v>
+        <v>1033.23188060407</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1628.169832756561</v>
+        <v>1103.729259373222</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1676.006733350752</v>
+        <v>1029.817600499809</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1512.931757789352</v>
+        <v>1089.997915201551</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1357.27488570784</v>
+        <v>1126.335172369871</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1209.147934167923</v>
+        <v>1078.6593414632</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1690.609360216639</v>
+        <v>1044.589330829809</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1742.571957661862</v>
+        <v>1104.804745290096</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1618.923988634479</v>
+        <v>1095.022837631682</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1576.655841453463</v>
+        <v>1077.534012843268</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>1359.373576393064</v>
+        <v>1104.852398359609</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1583.895175515146</v>
+        <v>1161.448764713642</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1466.561971490951</v>
+        <v>1076.99566884249</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1481.958726780771</v>
+        <v>1030.525752073594</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1683.644746021164</v>
+        <v>1028.417417221994</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1399.090499505324</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1599.578118133168</v>
+        <v>1102.275005343393</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1375.63269754634</v>
+        <v>1048.461159968979</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1494.193631225274</v>
+        <v>1031.196866980666</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1437.958921043841</v>
+        <v>1017.60776367737</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1656.79807515125</v>
+        <v>1094.421274622245</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1418.980442440695</v>
+        <v>1030.109080230857</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1624.168431587312</v>
+        <v>1120.026818483095</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1501.696371857208</v>
+        <v>1114.853587585926</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1462.984314763421</v>
+        <v>998.5345186570585</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>1697.747744481034</v>
+        <v>1108.351811799593</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1632.250008137699</v>
+        <v>1059.531568009585</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1615.018778100528</v>
+        <v>1056.790351755326</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1282.564175193668</v>
+        <v>1062.425434037387</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1409.060302534118</v>
+        <v>1070.764967986394</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1701.583165509416</v>
+        <v>1081.895365630669</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1458.980658081081</v>
+        <v>1085.566948867911</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1542.504643833545</v>
+        <v>1043.635542440971</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>1916.343486303891</v>
+        <v>1180.845726050342</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1508.500718005701</v>
+        <v>1132.252851104794</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1541.591867015268</v>
+        <v>1063.37294971159</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1567.157608353563</v>
+        <v>1051.829878000229</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1420.995165557361</v>
+        <v>1084.362808929714</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1527.055810041173</v>
+        <v>1034.760775693227</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1451.283957495522</v>
+        <v>1087.715647982375</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>1739.854079877771</v>
+        <v>1051.411967777351</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1724.335140397512</v>
+        <v>1061.620646567782</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1795.21709966646</v>
+        <v>1067.820426832566</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1668.187804105461</v>
+        <v>1057.647564266545</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1814.646881199185</v>
+        <v>1049.026422543268</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1279.303757204762</v>
+        <v>1042.254321993243</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1634.026365508145</v>
+        <v>1097.658027397058</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1398.322024341186</v>
+        <v>1036.160310751861</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1553.969001505094</v>
+        <v>1095.405245777572</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1480.900363832266</v>
+        <v>1065.078956252997</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1431.049527362381</v>
+        <v>1074.180411940778</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>1531.995049579126</v>
+        <v>1092.950916490509</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1636.224072496819</v>
+        <v>1062.712264830761</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1452.390498996654</v>
+        <v>1092.098688445406</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1464.801539915311</v>
+        <v>1042.574117334661</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1772.289700062147</v>
+        <v>1010.201862406467</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>1251.542137362172</v>
+        <v>1062.867333623124</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1696.281270292125</v>
+        <v>1149.865794398503</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1255.337160239219</v>
+        <v>1088.369521287156</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1424.866308512051</v>
+        <v>1025.739000110399</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1605.273291307341</v>
+        <v>1093.063248516551</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1450.164023601173</v>
+        <v>1092.159106666232</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>1557.555311192101</v>
+        <v>1164.257128245718</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1506.926553876349</v>
+        <v>1037.64075437858</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>1521.261321598867</v>
+        <v>1087.376200630405</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1648.91978374021</v>
+        <v>1057.7857304556</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1532.487005913975</v>
+        <v>1080.876043314641</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1715.900112208989</v>
+        <v>1116.126411240359</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>1587.1876271263</v>
+        <v>1000.212233800545</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1545.778367985382</v>
+        <v>1058.705242865665</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1425.482300003172</v>
+        <v>1115.36317260062</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>1574.624109966101</v>
+        <v>1146.37458033158</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1267.064892046138</v>
+        <v>1104.644188227448</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1167.793544886501</v>
+        <v>1095.751808433775</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>1615.323893924352</v>
+        <v>1127.196544169424</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1674.471074179496</v>
+        <v>1106.398449893501</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1617.795126736726</v>
+        <v>1071.093524364166</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1563.08121305355</v>
+        <v>1142.15190949914</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>1428.920009959431</v>
+        <v>1025.082818054938</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1372.565228212193</v>
+        <v>1141.067731566451</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1593.866106689502</v>
+        <v>1060.466484627623</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>1373.77491923345</v>
+        <v>1112.070146848597</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1331.523351139143</v>
+        <v>1092.661396450762</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>1791.23132916719</v>
+        <v>1053.519525141889</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1469.191905026227</v>
+        <v>1113.167059710711</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1428.314634989795</v>
+        <v>1053.234801451983</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>1647.405230959962</v>
+        <v>1011.783149413214</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>1320.327492477752</v>
+        <v>1106.959809273582</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>1495.712416203854</v>
+        <v>1128.371184477906</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1395.287184496407</v>
+        <v>1007.535987584495</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1494.940707173993</v>
+        <v>1083.665434123722</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>1419.677862868806</v>
+        <v>1042.811281153991</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1616.476813735996</v>
+        <v>1068.938378847645</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>1643.863592647071</v>
+        <v>1038.697101562532</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>1746.672382732679</v>
+        <v>1093.538914877873</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>1498.122885612573</v>
+        <v>990.531441458468</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>1664.913100213947</v>
+        <v>1079.940839070244</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1655.24194405039</v>
+        <v>1131.372948991641</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>1533.84196021089</v>
+        <v>1100.382342603581</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1443.46524288485</v>
+        <v>1086.883220888608</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1589.545820543931</v>
+        <v>1043.206968712399</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1767.885767384862</v>
+        <v>1094.898690822879</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>1349.228845664969</v>
+        <v>1025.220192035257</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1367.110318373629</v>
+        <v>1061.820047674746</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>1552.537509071643</v>
+        <v>1064.539475619741</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1641.541286151589</v>
+        <v>1082.104625552176</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>1611.899001153439</v>
+        <v>1054.412612567277</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1637.11180805512</v>
+        <v>1015.086299586562</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1502.090606320893</v>
+        <v>1098.795415015536</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>1598.772704801197</v>
+        <v>1045.751391807296</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>1310.084251858873</v>
+        <v>1029.485761398733</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>1603.313530994652</v>
+        <v>1083.980194443933</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1614.355154724642</v>
+        <v>1093.150667656509</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>1400.307839784675</v>
+        <v>1026.112466648194</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1597.304053847969</v>
+        <v>1100.074782271698</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1679.642637853701</v>
+        <v>1028.90921004355</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1569.427494554442</v>
+        <v>1039.054440464438</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1517.087842947093</v>
+        <v>1033.072899442785</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1893.899688510468</v>
+        <v>1089.113060407036</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1750.225657152542</v>
+        <v>1047.328731358416</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>1655.926377558</v>
+        <v>1039.652436735714</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>1612.336002077358</v>
+        <v>1070.82655287064</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1575.547159416074</v>
+        <v>1105.312764098316</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1542.94984905605</v>
+        <v>1022.983728796015</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1621.371054138157</v>
+        <v>1081.174908815356</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>1413.511567537781</v>
+        <v>1143.720694121443</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>1762.781920666124</v>
+        <v>1114.677206136481</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>1587.841109563379</v>
+        <v>996.1702715521424</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>1275.150841420158</v>
+        <v>1117.35894962152</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1453.480426511749</v>
+        <v>1085.78012250309</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>1382.114626944366</v>
+        <v>1098.311342844654</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1705.538372510234</v>
+        <v>1089.778423199686</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1410.89033229606</v>
+        <v>1125.413062978658</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1610.463561813824</v>
+        <v>1057.466365594342</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>1492.866833624678</v>
+        <v>1123.598926027161</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>1573.86097774265</v>
+        <v>1001.508589028686</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>1257.798899819824</v>
+        <v>1101.780636524109</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>1343.528860678893</v>
+        <v>1018.631868787413</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>1689.04283988261</v>
+        <v>1066.238167630508</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>1447.817719754053</v>
+        <v>1083.058744666057</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1515.034325689638</v>
+        <v>1037.127695838357</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1488.544673357638</v>
+        <v>1076.578640546927</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>1505.273051985415</v>
+        <v>1061.544711481609</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>1344.72007214109</v>
+        <v>1004.478081786901</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>1581.680201642871</v>
+        <v>1027.102524141352</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>1592.144038599474</v>
+        <v>1108.656948837735</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>1642.748382160546</v>
+        <v>1043.255681395313</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>1496.557348125495</v>
+        <v>1052.561995207873</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1529.778200928766</v>
+        <v>1074.90116806487</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>1560.208789928218</v>
+        <v>1051.365315893223</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>1709.46208248701</v>
+        <v>1083.997088378694</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>1643.000717930476</v>
+        <v>1094.299883616091</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>1657.370580647517</v>
+        <v>1083.722001706858</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1357.484432572444</v>
+        <v>1130.911211881757</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>1588.14988328584</v>
+        <v>1099.827936391694</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>1503.472129249232</v>
+        <v>1053.609581025225</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1609.703457979452</v>
+        <v>1073.130144772806</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>1719.318710437804</v>
+        <v>1117.725317952422</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>1369.075935599426</v>
+        <v>1005.941159406485</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1460.80980353268</v>
+        <v>1013.02527870787</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>1482.751272421922</v>
+        <v>1146.925161453318</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>1557.032485385309</v>
+        <v>1045.238274959466</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1605.886758125562</v>
+        <v>1056.917221894394</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1470.937892860037</v>
+        <v>1070.304368500113</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1686.979412241669</v>
+        <v>1119.776249773406</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>1655.58419681769</v>
+        <v>1077.569858409931</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>1653.968399964874</v>
+        <v>1107.269690618833</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>1649.343742535363</v>
+        <v>992.7069155264069</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>1401.37560707812</v>
+        <v>1044.956861241649</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>1580.221216586441</v>
+        <v>1096.004552402453</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>1404.391189814326</v>
+        <v>1087.217788156589</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1696.949169367385</v>
+        <v>1102.961498756401</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1433.634991938255</v>
+        <v>1110.937387775869</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>1505.353351554405</v>
+        <v>1069.462592042234</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>1272.057590701541</v>
+        <v>1116.008973015982</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1520.617760955222</v>
+        <v>1078.095688675552</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>1704.049201877042</v>
+        <v>1128.448111934849</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>1511.753231705907</v>
+        <v>1052.453702989869</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>1589.189838189959</v>
+        <v>1056.030003473351</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>1629.242221763092</v>
+        <v>1086.605992505788</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>1569.690127587823</v>
+        <v>1123.220541193228</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>1338.949100819198</v>
+        <v>1066.543363299148</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1528.972401043402</v>
+        <v>1079.805339024574</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>1666.607453262202</v>
+        <v>1068.166141517864</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1779.215712007564</v>
+        <v>1074.566005731231</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>1520.961695807008</v>
+        <v>1106.685725293764</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>1792.123341378765</v>
+        <v>1109.209808582188</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>1564.784839213588</v>
+        <v>1083.247920800356</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>1415.814568275693</v>
+        <v>1041.765327686253</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>1496.477383650683</v>
+        <v>1080.50370010387</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1776.960845413653</v>
+        <v>1024.478990892206</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>1667.813460954445</v>
+        <v>1077.78261327283</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>1743.23211344007</v>
+        <v>1073.806562475224</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>1440.629868778253</v>
+        <v>1065.316248534505</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>1567.939312796785</v>
+        <v>1045.611191260588</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>1604.667844351357</v>
+        <v>1068.255609310896</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1530.824836125109</v>
+        <v>1071.567875778739</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>1542.055851716302</v>
+        <v>1096.558262918158</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>1674.750272845935</v>
+        <v>1091.755363551367</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1418.076074470672</v>
+        <v>1028.244213123668</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>1492.473757501158</v>
+        <v>1070.111683462208</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>1741.133648582055</v>
+        <v>1132.870771877314</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>1539.009036746025</v>
+        <v>1088.661328693162</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1460.312785940144</v>
+        <v>1069.722580933877</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>1678.961143423625</v>
+        <v>1083.370156127254</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>1247.1619442109</v>
+        <v>1097.379470200958</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1623.582519051212</v>
+        <v>1139.139499940628</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>1601.107357166992</v>
+        <v>1097.843781552935</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>1598.19182297009</v>
+        <v>1084.814732994794</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>1414.863004559263</v>
+        <v>1080.665444694823</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1463.947851569832</v>
+        <v>1081.764147567254</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>1511.092580040776</v>
+        <v>1142.660722515901</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1377.04999630783</v>
+        <v>1099.977568299455</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>1276.459880263671</v>
+        <v>1102.234903263049</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>1579.855627834721</v>
+        <v>1073.441128528108</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>1399.861136430851</v>
+        <v>1079.391434666755</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>1726.71998784703</v>
+        <v>1058.624624248408</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>1626.479764196556</v>
+        <v>1067.415615019333</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1441.313356911775</v>
+        <v>1072.945653883271</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>1749.784628760628</v>
+        <v>1044.516570712962</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1497.081781076564</v>
+        <v>1084.493537632864</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>1548.054157548548</v>
+        <v>1037.426797415034</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>1406.021506412306</v>
+        <v>1082.390253064385</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>1685.784240563167</v>
+        <v>1038.838599857861</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1627.145612181305</v>
+        <v>1119.159485504941</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1407.160333890865</v>
+        <v>1063.466598359376</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>1581.048311035684</v>
+        <v>1096.726294514535</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>1606.927577708619</v>
+        <v>1082.674782390089</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>1661.775742172966</v>
+        <v>1096.853266620117</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1333.419586726414</v>
+        <v>1031.558071026265</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1427.023562802528</v>
+        <v>1061.103495755558</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>1755.520390335667</v>
+        <v>1060.881387176802</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>1704.568429997194</v>
+        <v>1157.874762893897</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>1499.124973393177</v>
+        <v>1044.870677067589</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>1270.010015122092</v>
+        <v>1062.498338099957</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1516.405130376516</v>
+        <v>1073.93940800421</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>1562.589690394366</v>
+        <v>1101.147379258134</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>1604.215221740265</v>
+        <v>1020.572063861014</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>1445.334415305086</v>
+        <v>1078.934363188308</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>1663.655756984988</v>
+        <v>1049.297223090115</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>1365.132355057863</v>
+        <v>1069.081570376451</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>1728.913228861666</v>
+        <v>1096.39262511915</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1321.859799827424</v>
+        <v>1105.742404739076</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>1590.338139346324</v>
+        <v>1064.76343089126</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>1639.085792757671</v>
+        <v>1091.704630670852</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1631.540409973913</v>
+        <v>1079.547377989482</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>1527.580621354311</v>
+        <v>1088.134427546591</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>1379.479817016337</v>
+        <v>1064.983682025031</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>1559.202953334649</v>
+        <v>1005.308790189604</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>1536.712757055906</v>
+        <v>1099.182576765348</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1566.644791914541</v>
+        <v>1116.418887123453</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>1518.192298454357</v>
+        <v>1046.967386691417</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>1500.588069954118</v>
+        <v>1014.622080433803</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>1684.498380590202</v>
+        <v>1066.03065896346</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>1286.967054545089</v>
+        <v>1085.864070551257</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1682.637996521289</v>
+        <v>1069.81134849841</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>1469.950615866548</v>
+        <v>1044.25568087049</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>1593.363490308726</v>
+        <v>974.5530416440131</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>1408.011266007426</v>
+        <v>1073.01917211844</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>1586.212184833868</v>
+        <v>1056.585532916323</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>1378.698042547745</v>
+        <v>1054.572277332184</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>1549.856935299911</v>
+        <v>1066.44407112214</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1769.130539194957</v>
+        <v>1078.128806087891</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>1561.114193567747</v>
+        <v>1059.597237951758</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>1440.068229258973</v>
+        <v>1111.105622028614</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>1777.574405466734</v>
+        <v>1053.313290833343</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>1313.882463399972</v>
+        <v>1092.900541346811</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1483.118031188157</v>
+        <v>1046.843543777383</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>1224.287352739096</v>
+        <v>1033.604350191313</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>1653.137171902447</v>
+        <v>1118.391513727862</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>1413.052186953179</v>
+        <v>1051.567084332097</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1567.687486195863</v>
+        <v>1047.276962431482</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>1609.397082358019</v>
+        <v>1052.030454019447</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>1479.713189326459</v>
+        <v>1040.008877984719</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1693.949755000264</v>
+        <v>1113.473768374257</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>1630.752375569333</v>
+        <v>1107.47637694953</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>1583.357475535314</v>
+        <v>1090.97652944914</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1629.667239706816</v>
+        <v>1111.834449407195</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>1512.026537098819</v>
+        <v>1079.009694790697</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>1386.007903073976</v>
+        <v>1073.701006675834</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1436.964253565474</v>
+        <v>1068.565690131463</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>1325.936670673944</v>
+        <v>1047.128273754364</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>1411.249550453288</v>
+        <v>1100.465496316026</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>1513.586195417833</v>
+        <v>1088.790960777237</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>1572.092836651541</v>
+        <v>1040.35259336462</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>1561.853523560398</v>
+        <v>1023.193285573417</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1551.814192967713</v>
+        <v>1083.8618925985</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1288.184213666175</v>
+        <v>1041.914045210519</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>1665.841974620542</v>
+        <v>1087.659717091782</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>1809.431970571698</v>
+        <v>1040.712642100528</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1341.779381116919</v>
+        <v>1047.483099716651</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>1553.06340048417</v>
+        <v>1019.753020561845</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>1617.914421776044</v>
+        <v>1099.327780399897</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>1582.514554356153</v>
+        <v>1052.005370018566</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>1283.949616936446</v>
+        <v>1085.329565236869</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>1457.295967962348</v>
+        <v>1080.3938805457</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>1747.592613293929</v>
+        <v>1059.691958726748</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>1530.191232307987</v>
+        <v>1044.411323786182</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1585.201402000145</v>
+        <v>1060.422948112124</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>1486.784394127582</v>
+        <v>1124.631152854767</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1577.957308150898</v>
+        <v>1043.991334814966</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>1547.356489816269</v>
+        <v>1125.071474281238</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>1621.882078756486</v>
+        <v>1060.066382234523</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>1775.092878062645</v>
+        <v>1117.878529843976</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>1853.602444999862</v>
+        <v>1122.521557706653</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>1401.173628951857</v>
+        <v>1121.947545814315</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>1326.507435358897</v>
+        <v>1071.212414552037</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>1802.778475458267</v>
+        <v>1083.139649702862</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>1681.213469750028</v>
+        <v>997.9646922940958</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>1300.355315251081</v>
+        <v>1042.456988492013</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>1796.126591596958</v>
+        <v>1096.515294568344</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1449.733937154433</v>
+        <v>1058.812500504414</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1434.8224955785</v>
+        <v>1113.80778368342</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>1528.132170780191</v>
+        <v>1043.800225690492</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>1641.336988598379</v>
+        <v>1096.905826855988</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>1336.690212549379</v>
+        <v>1082.430357679757</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>1304.041242474578</v>
+        <v>1067.623554099464</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>1646.380372009199</v>
+        <v>1055.492145532061</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>1602.067453615483</v>
+        <v>1092.504147922926</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1783.310712362873</v>
+        <v>1036.843458505431</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1550.679805189137</v>
+        <v>1050.865327455288</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1529.3190993369</v>
+        <v>1015.894003056414</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1576.711648166817</v>
+        <v>1009.476711476979</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>1402.559035254654</v>
+        <v>1037.829858960845</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>1477.960596979307</v>
+        <v>1017.907149662618</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>1592.86653960034</v>
+        <v>1099.503921525274</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>1744.689851222926</v>
+        <v>1038.456647703768</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>1558.536159277463</v>
+        <v>1029.024583079304</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>1635.759829066588</v>
+        <v>1147.611373941583</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>1714.926619491021</v>
+        <v>1037.538392778177</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>1472.791843177409</v>
+        <v>1072.536468505716</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1600.416825645606</v>
+        <v>1122.993348071442</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>1648.607145143884</v>
+        <v>1136.77202907736</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>1560.381031074001</v>
+        <v>1093.98433457205</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>1540.152429228419</v>
+        <v>999.4423168012374</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>1260.426175426643</v>
+        <v>1077.421831549385</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>1506.682531077347</v>
+        <v>1023.370995955281</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1532.95391822292</v>
+        <v>1102.765694162969</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>1582.09030121737</v>
+        <v>1125.536096234069</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1313.416209534671</v>
+        <v>1055.748441636057</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1391.688170798837</v>
+        <v>1153.487706649492</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>1432.032287439761</v>
+        <v>1095.293613130314</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>1785.18522210015</v>
+        <v>1053.048252312925</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>1646.410201498578</v>
+        <v>1055.28360827642</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>1219.032623642189</v>
+        <v>1033.318139908263</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>1403.853676384317</v>
+        <v>1098.35567790761</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>1880.262306034049</v>
+        <v>1004.637037512576</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>1725.522114858399</v>
+        <v>1034.283314855388</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1786.303022530242</v>
+        <v>1064.367211286438</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>1492.28737098276</v>
+        <v>1094.073882858961</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>1429.986965500637</v>
+        <v>1113.655811750486</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>1645.263847118222</v>
+        <v>1042.012487637413</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>1515.135818595553</v>
+        <v>1054.780551463233</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1424.718760230558</v>
+        <v>1090.24680222072</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1484.274613970592</v>
+        <v>1086.296953545734</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>1387.705944176727</v>
+        <v>1061.369399484956</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>1538.554136115726</v>
+        <v>1030.461227169752</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>1541.71756469325</v>
+        <v>1080.170833829068</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>1553.39767916791</v>
+        <v>1048.15697811505</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>1610.249789514653</v>
+        <v>1115.484588226925</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>1714.200202899179</v>
+        <v>1065.850348488932</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1646.882738150834</v>
+        <v>1055.098157940772</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>1349.961814109581</v>
+        <v>1033.820729700316</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>1718.449519708258</v>
+        <v>1094.640016845384</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>1459.955466306264</v>
+        <v>1100.860419125099</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>1694.898849828988</v>
+        <v>1107.113199742083</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1536.343873850906</v>
+        <v>1071.412272414403</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>1458.12230589666</v>
+        <v>1035.647030080915</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>1454.311855065814</v>
+        <v>1112.431411594065</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>1622.882636065123</v>
+        <v>1102.44291963033</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1652.881218839356</v>
+        <v>1074.135292962449</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>1625.968627577856</v>
+        <v>1068.344134466945</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>1919.804085411236</v>
+        <v>1097.275817165382</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1404.856989065061</v>
+        <v>1045.934254022513</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>1422.414506441659</v>
+        <v>1150.874562121272</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>1328.79915963178</v>
+        <v>1079.218820494628</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>1475.706121959738</v>
+        <v>1046.816506963213</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1539.237589841016</v>
+        <v>1104.422683509055</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>1490.940559449638</v>
+        <v>1093.365582945221</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>1491.699377288795</v>
+        <v>1085.236131379097</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>1414.174884689057</v>
+        <v>1109.780839411153</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1392.813889710336</v>
+        <v>1037.920059005591</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1361.198822280662</v>
+        <v>1101.625013395687</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>1517.670282139972</v>
+        <v>1086.975404357559</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>1751.027381771233</v>
+        <v>1054.859687418909</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>1617.268312885619</v>
+        <v>1077.259999264465</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1552.065081125028</v>
+        <v>1011.07758379848</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>1473.23019826325</v>
+        <v>1059.190141957828</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>1752.080524714654</v>
+        <v>1036.653503233586</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>1462.133585168475</v>
+        <v>1071.937850484158</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>1633.432113072009</v>
+        <v>1101.454284480455</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>1745.22190152766</v>
+        <v>1144.501222828302</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1442.46383924398</v>
+        <v>1078.425090597582</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>1789.138520939976</v>
+        <v>1071.737840965912</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>1705.839917567299</v>
+        <v>1070.640686489983</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>1672.768876001308</v>
+        <v>1032.936196004678</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1584.320902806466</v>
+        <v>1051.718022164129</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1695.431324770835</v>
+        <v>1088.995009411693</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>1571.999752862362</v>
+        <v>1090.125215253094</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>1304.877680850785</v>
+        <v>1026.386287930316</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1448.613004646797</v>
+        <v>1063.94566384281</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>1489.400965412626</v>
+        <v>1051.155131059195</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>1588.518868343192</v>
+        <v>1076.044663419109</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>1497.37847668565</v>
+        <v>1050.834887174196</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>1632.482220692797</v>
+        <v>1088.033665888369</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>1477.412992369389</v>
+        <v>1089.622768982313</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>1378.417917526577</v>
+        <v>1038.218985585248</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>1297.237688816948</v>
+        <v>1018.221024294093</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>1665.502352581937</v>
+        <v>1065.579556998262</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1458.539292947115</v>
+        <v>1093.810174403394</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>1555.352103319706</v>
+        <v>1049.425217627647</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>1765.473459412093</v>
+        <v>978.328071808764</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>1366.32041159547</v>
+        <v>1089.836531481394</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1611.283947658477</v>
+        <v>1086.011850852319</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>1615.559778369412</v>
+        <v>1081.322072754851</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>1595.630559501843</v>
+        <v>1057.053104164087</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1707.829414813259</v>
+        <v>1003.700437370988</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>1543.377321705948</v>
+        <v>1069.362829938195</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>1471.392338591093</v>
+        <v>1086.725888787863</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>1688.373971627577</v>
+        <v>1046.445625651277</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>1817.095760796925</v>
+        <v>1084.426908828863</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1514.60890855544</v>
+        <v>1050.25966363835</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>1527.909861235863</v>
+        <v>1107.390347439709</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>1347.577973424908</v>
+        <v>1058.332248906304</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>1630.1051835701</v>
+        <v>1016.37065198358</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1467.762300447087</v>
+        <v>1063.110273612778</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1450.493202145761</v>
+        <v>1124.972592205921</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>1634.946455180697</v>
+        <v>1027.871558551484</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1549.403619192454</v>
+        <v>1071.468830785999</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>1559.683339212934</v>
+        <v>1072.182353702751</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>1951.978900920725</v>
+        <v>1061.695191180751</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>1608.923168667922</v>
+        <v>1009.706222483169</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>1385.192410087022</v>
+        <v>1039.525654797051</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>1640.189371114891</v>
+        <v>1065.277591724666</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>1510.527305727672</v>
+        <v>1035.023732635284</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1654.601776150317</v>
+        <v>1091.086528262279</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>1544.624506836456</v>
+        <v>1044.74603611381</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>1661.390904343204</v>
+        <v>1017.548029525763</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>1574.989021365481</v>
+        <v>1037.198866739853</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>1371.366592675225</v>
+        <v>1089.550168500803</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>1545.009264682046</v>
+        <v>1057.900566006787</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>1526.798144173157</v>
+        <v>1097.998523977018</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>1564.126639138516</v>
+        <v>1046.284780129019</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>1577.426828172728</v>
+        <v>1041.608991222239</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>1430.477675786732</v>
+        <v>1062.234252247918</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1425.83657166373</v>
+        <v>1007.052472998977</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>1374.538766274386</v>
+        <v>1076.133340741027</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>1669.688201726538</v>
+        <v>1041.541840541094</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>1440.855490293675</v>
+        <v>1062.021239409207</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>1505.96971964325</v>
+        <v>1068.472723115943</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>1642.173838298226</v>
+        <v>1149.031904249936</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>1467.073577187553</v>
+        <v>1024.1646403008</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>1678.529815105433</v>
+        <v>1114.93053785548</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>1664.195329953221</v>
+        <v>996.5933272961552</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>1317.169783683803</v>
+        <v>1052.970031100032</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1335.504648127833</v>
+        <v>1112.723159065229</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>1478.80743251645</v>
+        <v>1079.474838299291</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>1469.384776244178</v>
+        <v>1033.968157053635</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>1605.206106352051</v>
+        <v>1011.514494501527</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>1422.788166960803</v>
+        <v>1113.296245936335</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1358.637668408785</v>
+        <v>1112.850612019394</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>1563.668927958319</v>
+        <v>1119.623432053203</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>1341.257903571327</v>
+        <v>1061.083055907645</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1872.654138339204</v>
+        <v>1133.533245824174</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1650.719033799173</v>
+        <v>1083.553447006394</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>1657.804493387084</v>
+        <v>1070.41449669432</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>1812.230313995824</v>
+        <v>1023.708963395031</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1448.173244757421</v>
+        <v>1155.142803437244</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>1420.422267508016</v>
+        <v>1097.205380590916</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1660.326366315931</v>
+        <v>1101.885421415592</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1686.25092345277</v>
+        <v>1093.315505782052</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1573.193077066541</v>
+        <v>1100.786962428615</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1663.024289761927</v>
+        <v>1019.960878788741</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1483.960692255675</v>
+        <v>1049.673714476978</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>1390.985595674835</v>
+        <v>1118.503676357973</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1606.314539390138</v>
+        <v>1151.144161020497</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>1628.857215822881</v>
+        <v>1049.876790264566</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>1712.691575152673</v>
+        <v>1108.177961770164</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>1464.794486750944</v>
+        <v>1077.728727003141</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>1424.112542323846</v>
+        <v>1047.729172321604</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>1504.24081798963</v>
+        <v>1047.910820079946</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1446.600499567484</v>
+        <v>1092.300322916637</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>1850.211209755086</v>
+        <v>1151.929438239481</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>1729.862306423738</v>
+        <v>1054.716775361701</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>1485.084442263645</v>
+        <v>1049.787038475776</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1475.851113292619</v>
+        <v>1082.599501691589</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1547.196475331898</v>
+        <v>1095.549269855154</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1516.583331981856</v>
+        <v>1026.252316051193</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>1456.688006928257</v>
+        <v>1065.914153771757</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1291.898436414162</v>
+        <v>1132.515844961919</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>1627.580515289996</v>
+        <v>1066.213730394962</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1675.512441950111</v>
+        <v>1111.896798672012</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>1644.924468583623</v>
+        <v>1080.20765828447</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1570.25942416216</v>
+        <v>1114.504221406079</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>1568.536061868391</v>
+        <v>968.4316219654288</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>1503.676311318032</v>
+        <v>981.8720838829781</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>1600.129066901689</v>
+        <v>1103.158159987009</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>1421.557984929071</v>
+        <v>1022.141889117987</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>1509.309716200025</v>
+        <v>1061.88058856965</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>1538.235947378503</v>
+        <v>1098.993616195946</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1759.206933771816</v>
+        <v>1098.617410547916</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>1483.454945329068</v>
+        <v>1091.438065241182</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1612.947462299917</v>
+        <v>1056.411441192505</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1509.373542320611</v>
+        <v>1105.870822470775</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>1572.964513581306</v>
+        <v>1081.613387520266</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>1204.696350047388</v>
+        <v>1032.427652643245</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>1870.062984237173</v>
+        <v>1032.650027755914</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>1611.023747170907</v>
+        <v>1127.010429530204</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1334.319658677833</v>
+        <v>1057.743242442346</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1232.759889804726</v>
+        <v>1076.650516045351</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>1830.706429867269</v>
+        <v>1079.278453243565</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1721.568119598698</v>
+        <v>1087.089074212143</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>1669.08761152173</v>
+        <v>1116.973589444125</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>1594.578284133959</v>
+        <v>1044.187679041696</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1624.682800426319</v>
+        <v>1053.946072852597</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>1380.065337783114</v>
+        <v>1117.106328198968</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>1591.237362133323</v>
+        <v>1059.031816691485</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>1307.024668633406</v>
+        <v>1024.578758340488</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>1613.567932064222</v>
+        <v>1050.650860262693</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1780.864849579283</v>
+        <v>1086.182837453378</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1428.239729602817</v>
+        <v>1060.225534061769</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>1519.1184452559</v>
+        <v>1074.915528151269</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1455.287511790692</v>
+        <v>1067.70174307875</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>1660.967333443675</v>
+        <v>1059.284763395857</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>1396.350152326852</v>
+        <v>1126.226897694042</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>1548.561859494633</v>
+        <v>1018.962578032423</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>1608.057126424901</v>
+        <v>1100.266124441882</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1470.517909900951</v>
+        <v>1110.284263389977</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1302.220543849995</v>
+        <v>1077.935467085747</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>1760.025005495568</v>
+        <v>1064.66100556805</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>1452.761935464022</v>
+        <v>1084.732822470615</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>1535.651899549885</v>
+        <v>1048.972492441011</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1620.700965972449</v>
+        <v>1052.150759194157</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1444.612745489711</v>
+        <v>1129.746850193875</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>1481.584528981472</v>
+        <v>1021.729398235642</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1627.984010756286</v>
+        <v>1050.463508598835</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>1582.963789542356</v>
+        <v>1095.155513627311</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>1546.167940685807</v>
+        <v>981.6924254958872</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>1639.923752813124</v>
+        <v>1066.868556920237</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>1584.248592118082</v>
+        <v>1045.46985766037</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>1500.296986699432</v>
+        <v>1071.036697370528</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>1463.377993524977</v>
+        <v>1118.113329488054</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>1000</v>
+        <v>1175.499560538348</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>1764.572261843619</v>
+        <v>1019.229823863741</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>1375.151067642375</v>
+        <v>1052.414822277155</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1587.569768275221</v>
+        <v>1003.052953317625</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1585.593506883589</v>
+        <v>1120.473943878749</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>1485.776335101242</v>
+        <v>1010.608234048818</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1293.458129125007</v>
+        <v>1063.736703707896</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>1555.911680806651</v>
+        <v>1045.83486382776</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>1487.217897461733</v>
+        <v>1063.191914065293</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1585.820741916938</v>
+        <v>1066.1333526307</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>1311.99766174099</v>
+        <v>1073.388853318243</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>1535.768685330176</v>
+        <v>1068.739411896856</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>1698.690983802993</v>
+        <v>1058.256706685488</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>1620.370598492181</v>
+        <v>1076.842385329981</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>1525.032107784662</v>
+        <v>1027.822876412276</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>1450.725421956127</v>
+        <v>1074.296268272237</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>1531.729760658803</v>
+        <v>1087.829816846511</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>1575.892612078837</v>
+        <v>1107.80769702779</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1651.631962316864</v>
+        <v>1130.480645829019</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>1731.6791749539</v>
+        <v>1011.982113414841</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>1565.173960593905</v>
+        <v>1043.554375790779</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1389.240666780136</v>
+        <v>1085.007475151253</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>1397.797544980699</v>
+        <v>1059.434730715926</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>1436.509717946909</v>
+        <v>1051.242966175789</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>1847.916462429871</v>
+        <v>1022.73055215848</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>1528.476460844746</v>
+        <v>1080.7848428875</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>1516.195078705238</v>
+        <v>1087.505379261457</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1478.41159988642</v>
+        <v>1074.489206301224</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>1828.727263120804</v>
+        <v>1034.075505665171</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>1470.840092181931</v>
+        <v>1071.824027801197</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>1237.188953537936</v>
+        <v>1131.772628701952</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>1479.047135897974</v>
+        <v>1099.64710604693</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>1566.861863486059</v>
+        <v>1020.186118031644</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>1543.713072795308</v>
+        <v>1051.622883060346</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>1538.096476515658</v>
+        <v>1016.668879445128</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1548.877823391598</v>
+        <v>1059.895056367868</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>1453.80376684527</v>
+        <v>1061.444770205124</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1767.325893124876</v>
+        <v>1105.147479838</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1673.263213228752</v>
+        <v>1084.885394993291</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>1735.688957704235</v>
+        <v>1092.728205715487</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1651.971568315711</v>
+        <v>1049.552976380634</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>1412.212639313989</v>
+        <v>1072.73385553308</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1512.293723763954</v>
+        <v>1117.493267682144</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>1559.286742733691</v>
+        <v>1103.597064177053</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>1692.275692901444</v>
+        <v>1070.936932147597</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1554.760413654968</v>
+        <v>1071.278338056063</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>1817.667269429001</v>
+        <v>1100.622351295728</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>1468.64029306825</v>
+        <v>1036.936384239668</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>1411.969787370611</v>
+        <v>1113.999009236051</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>1671.99517471794</v>
+        <v>1065.175037713067</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>1562.302088137659</v>
+        <v>1069.176921560335</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1487.960462027471</v>
+        <v>1056.353689225766</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>1484.348232036617</v>
+        <v>1081.128270800502</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1439.217014477751</v>
+        <v>1098.13163301737</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1330.024020419528</v>
+        <v>1046.197279310554</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1596.806266845792</v>
+        <v>1079.839218639532</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>1355.429137581427</v>
+        <v>1057.286203956645</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1667.014709018195</v>
+        <v>1073.277578663813</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>1568.431169723446</v>
+        <v>1039.863196623199</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1498.677352618688</v>
+        <v>1017.203127552841</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1340.048488307224</v>
+        <v>1085.900988422073</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>1663.525985812906</v>
+        <v>1112.965699715185</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1540.495069886478</v>
+        <v>1075.894102784395</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1414.653976631652</v>
+        <v>1127.807929339635</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1394.898859895707</v>
+        <v>1016.996226334264</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>1319.169473379836</v>
+        <v>1070.173745831359</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>1733.028822486373</v>
+        <v>994.2381530121243</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1370.934833738622</v>
+        <v>1101.329684448662</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>1702.572574902663</v>
+        <v>1066.79710830922</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1557.293597651073</v>
+        <v>1069.26460262072</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>1645.766239683233</v>
+        <v>1085.38364935778</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>1598.941112069859</v>
+        <v>1027.443704015734</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>1437.145799040199</v>
+        <v>1035.262435696039</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>1324.357991793303</v>
+        <v>1062.773331850302</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1429.593276039282</v>
+        <v>1110.589094808088</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>1563.483113189599</v>
+        <v>1121.66563809609</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>1476.896509716142</v>
+        <v>1145.224114311881</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1631.198531367073</v>
+        <v>1054.479280311773</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>1377.483671321993</v>
+        <v>1068.799885955331</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>1799.269364521854</v>
+        <v>1074.693002383743</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>1596.356994549991</v>
+        <v>1024.057337498707</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1537.305462087241</v>
+        <v>1070.028758682065</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>1490.734283896248</v>
+        <v>1080.743465404953</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>1523.860691963774</v>
+        <v>1129.400602987414</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1699.157160084467</v>
+        <v>1014.787501486695</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>1636.609403918059</v>
+        <v>1082.840998125123</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>1565.27658213868</v>
+        <v>1120.843424922254</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>1239.848975202421</v>
+        <v>1057.561619050308</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>1461.111445510121</v>
+        <v>1072.1133957919</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1457.938250977746</v>
+        <v>1092.460612046493</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>1590.902299756366</v>
+        <v>1088.524894772338</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1735.195251401572</v>
+        <v>1090.491671384158</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>1384.711463891187</v>
+        <v>1055.914222373275</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1639.395220241047</v>
+        <v>1014.224467952536</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1797.410895402793</v>
+        <v>1053.722526545943</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>1673.796249507242</v>
+        <v>995.726522036108</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>1503.052681228904</v>
+        <v>1045.078940167249</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>1619.987032961104</v>
+        <v>1056.08920534278</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>1432.772654161296</v>
+        <v>1101.567170902855</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>1691.411859280462</v>
+        <v>1081.711037757112</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>1390.591686265269</v>
+        <v>1067.501308343176</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>1298.713182863184</v>
+        <v>1112.248219069534</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>1523.290595334654</v>
+        <v>1109.679786974983</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>1148.809901968887</v>
+        <v>1092.029446433891</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1616.183598618805</v>
+        <v>1124.027438424579</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>1566.269553674972</v>
+        <v>1093.79787648013</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>1824.086144083931</v>
+        <v>1106.836166568988</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>1691.671960790779</v>
+        <v>1109.080984979215</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>1589.835475413821</v>
+        <v>1081.446177725372</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1488.889259972888</v>
+        <v>1095.672422001762</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>1717.639884499057</v>
+        <v>1080.103077394078</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>1531.338545967574</v>
+        <v>1079.069500478572</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1608.404798038391</v>
+        <v>1089.332656437616</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1193.946659526732</v>
+        <v>1072.815359374096</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>1498.849411023844</v>
+        <v>1025.77848817982</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>1533.412225228424</v>
+        <v>1053.47601890552</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>1845.411652830141</v>
+        <v>1039.457826564828</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>1601.795309714582</v>
+        <v>1007.700879330221</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>1651.277993967398</v>
+        <v>1172.277616025825</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>1386.493487568345</v>
+        <v>1122.100434638983</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>1656.573233422395</v>
+        <v>1029.431741113968</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>1897.158659494859</v>
+        <v>1086.214329106809</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>1603.529795280532</v>
+        <v>1050.381097095346</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>1447.520512548713</v>
+        <v>1133.423948573273</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>1482.218220690927</v>
+        <v>1029.760540387736</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>1634.774731340632</v>
+        <v>1083.451128794944</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>1727.370176030014</v>
+        <v>1031.714000033802</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1711.942837868641</v>
+        <v>1033.512914697594</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>1508.735345198627</v>
+        <v>992.1945902801729</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1613.170928202342</v>
+        <v>1032.580513768377</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>1570.201759527228</v>
+        <v>1072.476201468953</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1578.277543324968</v>
+        <v>1138.404809355667</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>1496.007661872697</v>
+        <v>1026.785339332615</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1703.276410807882</v>
+        <v>1055.766987068137</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>1515.53799030899</v>
+        <v>1075.338820455591</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1576.283076057964</v>
+        <v>1105.006928243313</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1535.275287453353</v>
+        <v>1116.732119996319</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>1723.172787035166</v>
+        <v>1078.362099569614</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>1649.719670734339</v>
+        <v>1072.64234364288</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>1426.526877222037</v>
+        <v>1145.811101067459</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>1623.422261461634</v>
+        <v>1034.895894110556</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>1694.558913036838</v>
+        <v>1045.303316366863</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>1659.271921050462</v>
+        <v>1000.753792959244</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1439.478093161019</v>
+        <v>1069.924585300623</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1763.104875903293</v>
+        <v>1159.564388587177</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>1508.057494200019</v>
+        <v>1090.014096182694</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1344.508755572743</v>
+        <v>1073.168493947551</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1756.539516354954</v>
+        <v>1046.554846418887</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1127.19246763221</v>
+        <v>1085.142518020324</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>1178.715545532949</v>
+        <v>1091.891921314636</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>1368.678044016352</v>
+        <v>1048.323938113887</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>1554.378888138983</v>
+        <v>1141.500272895742</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>1263.574991448153</v>
+        <v>1102.553421071018</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>1510.241186079801</v>
+        <v>1064.201295379207</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>1616.972047512319</v>
+        <v>1022.19473157575</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1653.812655301421</v>
+        <v>1073.607185922624</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1345.669142758393</v>
+        <v>1041.119090822941</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1835.198119162939</v>
+        <v>1031.383121956228</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>1676.97471337416</v>
+        <v>1052.797046335165</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>1406.722968297624</v>
+        <v>1047.795845940016</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>1433.760315301998</v>
+        <v>1027.028787901523</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1564.512903526622</v>
+        <v>1143.043566550231</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>1507.242368288366</v>
+        <v>1028.161098903419</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>1622.473932453478</v>
+        <v>1120.191401561746</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>1676.486667066627</v>
+        <v>1078.686773167393</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>1630.245781887814</v>
+        <v>1154.57902265581</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>1761.766581408541</v>
+        <v>1078.274441929493</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>1416.917473496665</v>
+        <v>1050.623812348359</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1323.016063163032</v>
+        <v>1070.596244132624</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>1670.899328233479</v>
+        <v>1156.604920653084</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1662.117354914215</v>
+        <v>1093.687624554765</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>1449.110043147105</v>
+        <v>1106.241485084971</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1500.098336602152</v>
+        <v>1073.519733876395</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>2000</v>
+        <v>1097.094871820776</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1499.513442775411</v>
+        <v>1075.427031735195</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1422.085188656348</v>
+        <v>1048.570852863436</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>1626.328403700346</v>
+        <v>1103.402326672942</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1438.070590744875</v>
+        <v>1077.137049631442</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>1513.162989891644</v>
+        <v>1015.581936183488</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>1383.68379536295</v>
+        <v>1076.70214181449</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>1607.41991543105</v>
+        <v>1104.116461801463</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>1580.444217541794</v>
+        <v>1082.802178421598</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1545.32106707505</v>
+        <v>1058.093566177391</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>1732.849623765409</v>
+        <v>1012.673027609992</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>1555.523106623853</v>
+        <v>1062.630725760159</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>1770.397176378656</v>
+        <v>1075.136147170551</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1471.839513322168</v>
+        <v>1078.77941453036</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1350.436449354149</v>
+        <v>1066.335256894987</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1670.133823641371</v>
+        <v>1055.227277973699</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>1534.953267279167</v>
+        <v>1022.546693565017</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>1525.438579476262</v>
+        <v>1065.742182900665</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>1658.416858190903</v>
+        <v>1002.472834439606</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>1524.459871237595</v>
+        <v>1020.721040606968</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>1443.602530853228</v>
+        <v>1040.687715276383</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>1388.56154445496</v>
+        <v>1098.568750178864</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>1497.813648408323</v>
+        <v>1035.406551435761</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>1417.789207931387</v>
+        <v>1089.388845327282</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1317.69043161133</v>
+        <v>1098.875793666458</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>1490.114703731694</v>
+        <v>1114.323087590127</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>1442.865416764703</v>
+        <v>1102.806955223725</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>1543.824008552472</v>
+        <v>1035.887892087605</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>1308.785398057287</v>
+        <v>1060.594946062599</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>1435.174810756197</v>
+        <v>1108.209596685989</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>1539.754057157977</v>
+        <v>1140.51845433529</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1352.134827671891</v>
+        <v>1067.929832310582</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>1295.403852235133</v>
+        <v>997.5048398527792</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>1754.414440641717</v>
+        <v>1079.661264979724</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>1507.812788253667</v>
+        <v>1111.678666717395</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>1571.235101009208</v>
+        <v>1096.16303813631</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>1521.633239273178</v>
+        <v>977.9436305029535</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>1594.161164413908</v>
+        <v>1136.363364012686</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>1432.29432134327</v>
+        <v>1102.042480843307</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1410.356425323979</v>
+        <v>1067.84558003293</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>1536.800313975795</v>
+        <v>1013.863154536979</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>1468.273897259454</v>
+        <v>1084.267130142083</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>1720.29491115962</v>
+        <v>1110.459555900913</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>1530.728641456645</v>
+        <v>1069.03307615643</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1402.281165364835</v>
+        <v>1042.643997516938</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1753.835926827191</v>
+        <v>1127.694243952647</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>1504.71864584377</v>
+        <v>1049.355201078634</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>1635.660962846871</v>
+        <v>1055.386967060951</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>1619.412255141681</v>
+        <v>1061.257503495516</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>1472.405554683804</v>
+        <v>1089.253297657546</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1537.526493298342</v>
+        <v>1030.210957373928</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>1706.391149088779</v>
+        <v>1057.98117828407</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>1351.820167097847</v>
+        <v>1134.664303424801</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>1736.867115647646</v>
+        <v>1087.942654300527</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>1738.190086170598</v>
+        <v>1038.139021549068</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>1517.534665426535</v>
+        <v>1048.281456446134</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>1405.850869338794</v>
+        <v>1076.468490533334</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>1570.621543805942</v>
+        <v>1109.498984829276</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1369.646516965794</v>
+        <v>1034.370159297303</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1558.05937051145</v>
+        <v>1119.31667385535</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>1441.837793329438</v>
+        <v>1094.574305082914</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>1290.696568882212</v>
+        <v>1052.278960900267</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>1473.432810407814</v>
+        <v>1049.990333455167</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>1362.978958352758</v>
+        <v>1038.337846238569</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1604.086307476116</v>
+        <v>1042.182750554109</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>1522.107540274993</v>
+        <v>1038.630423748396</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>1599.297101123926</v>
+        <v>1013.342219006836</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>1579.529202692672</v>
+        <v>1082.008138546687</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>1373.333915584841</v>
+        <v>1031.858786759852</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1601.025078861266</v>
+        <v>1058.440051640719</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>1525.931922409842</v>
+        <v>1035.752019144121</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>1476.526251936704</v>
+        <v>1072.209825876648</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>1525.50620697638</v>
+        <v>1048.846457528008</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>1574.487908216394</v>
+        <v>1128.828260441357</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>1392.260159698051</v>
+        <v>1108.595629500212</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>1466.066091024047</v>
+        <v>1087.44138392297</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>1490.019264343054</v>
+        <v>1023.599088672193</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>1444.170239835114</v>
+        <v>1135.86884122527</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>1518.814874758871</v>
+        <v>1090.840613397415</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>1632.802130812608</v>
+        <v>1064.267552409676</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>1708.478784206464</v>
+        <v>1018.556623936222</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1281.317306631743</v>
+        <v>1075.480831775773</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>1397.46520686</v>
+        <v>994.5447055975351</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>1561.595288747755</v>
+        <v>1036.041115730832</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>1461.600469065271</v>
+        <v>1056.177948581451</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>1491.298131331758</v>
+        <v>1034.569861479383</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>1475.22535931117</v>
+        <v>1129.083436394772</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1690.167241274702</v>
+        <v>1060.812076847638</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>1529.384505015145</v>
+        <v>1075.677021172722</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>1393.767270744821</v>
+        <v>1074.02519360329</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>1360.190628721788</v>
+        <v>1067.009384830873</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>1607.672023746343</v>
+        <v>1030.889913506184</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1740.202323649518</v>
+        <v>991.0087401196433</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1456.206381980819</v>
+        <v>1071.858225783564</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>1685.454585893311</v>
+        <v>1048.045818001326</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>1602.952417799688</v>
+        <v>1118.725916430403</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>1493.796765229735</v>
+        <v>1086.586777413368</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>1591.725661801697</v>
+        <v>1099.747678076451</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>1781.697068453962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1637.904512438684</v>
+        <v>1086.420094130266</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1670.487876513017</v>
+        <v>1062.990381955911</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>1417.217433168969</v>
+        <v>1051.025563023383</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1519.943449355334</v>
+        <v>1039.1869523037</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>1541.238488583982</v>
+        <v>1075.951176441632</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>1479.363446134002</v>
+        <v>1124.282353610075</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>1618.542860048584</v>
+        <v>1121.346566387545</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1501.498125839515</v>
+        <v>1063.655482691097</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>1551.326480895273</v>
+        <v>1087.137890957119</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>1585.032180417944</v>
+        <v>1077.244689043832</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>1381.573393905211</v>
+        <v>1043.003738768484</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>1501.101844621913</v>
+        <v>1036.306526545932</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>1722.919988838587</v>
+        <v>1074.767297146247</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>1494.309823725793</v>
+        <v>985.925387096511</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1423.597022255765</v>
+        <v>1115.245566912793</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>1624.869067646159</v>
+        <v>1042.931648898826</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>1586.578892212065</v>
+        <v>1091.263171687035</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>1838.124587701857</v>
+        <v>1096.312233186111</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1382.883932288471</v>
+        <v>1082.974583015852</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>1185.781586934243</v>
+        <v>1031.12077279318</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>1480.540946977839</v>
+        <v>1082.286135059252</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>1595.251213239723</v>
+        <v>1075.061308639122</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1716.816143564347</v>
+        <v>1091.530686086554</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>1711.599078013591</v>
+        <v>1068.043535818139</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1857.563500334891</v>
+        <v>1138.608638535159</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>1546.782491541312</v>
+        <v>1110.0000766844</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>1477.265941183977</v>
+        <v>1091.280645690991</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>1595.824505084538</v>
+        <v>1104.240858283827</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1681.058925783076</v>
+        <v>1063.530658399098</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1451.723405247898</v>
+        <v>1070.467592278736</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1504.276966103331</v>
+        <v>1084.162226445939</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>1486.452931919176</v>
+        <v>1122.266597026965</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>1684.353875140863</v>
+        <v>1057.171502791116</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>1602.235698603934</v>
+        <v>1090.905611258538</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>1788.034567035178</v>
+        <v>1110.19865405909</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1578.539571475885</v>
+        <v>1126.005550741002</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>1473.852649002453</v>
+        <v>1077.893879081317</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>1485.957017293987</v>
+        <v>1137.204175091199</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>1719.142584821716</v>
+        <v>1105.646365662423</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1356.514024424345</v>
+        <v>1135.307875088917</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1707.459040618911</v>
+        <v>1110.751980759186</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>1364.028207788016</v>
+        <v>1021.304468187015</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1573.510296265142</v>
+        <v>1078.49414938439</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1485.415885723743</v>
+        <v>1057.24032865417</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>1748.099829813377</v>
+        <v>1088.593023701732</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>1622.173654665374</v>
+        <v>1066.919125110347</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>1648.086484299376</v>
+        <v>1076.931275953615</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>1462.368209703173</v>
+        <v>1062.079852148427</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>1738.588978365708</v>
+        <v>1126.896360795848</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1721.509275282981</v>
+        <v>1076.38072774538</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>1332.171021904875</v>
+        <v>1041.305796541637</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>1725.103132343444</v>
+        <v>1040.065602875823</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>1493.242397149495</v>
+        <v>959.8429969258607</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>1506.382962440468</v>
+        <v>1046.088696412517</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1346.66800468102</v>
+        <v>1109.286942672286</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>1660.07851644162</v>
+        <v>1108.004191711431</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1619.560328828198</v>
+        <v>1137.685940934577</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>1801.626009788687</v>
+        <v>1082.212270824391</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>1580.992343114498</v>
+        <v>1065.488440586697</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1427.493309873951</v>
+        <v>1076.285277562535</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>1561.010216812927</v>
+        <v>1032.08628114194</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>1465.650807828356</v>
+        <v>1053.138981330934</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>1698.29877973558</v>
+        <v>1008.087274518647</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>1354.176030531009</v>
+        <v>1130.133644985708</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>1361.93469128476</v>
+        <v>1060.693349508474</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>1409.600684813008</v>
+        <v>1027.543947337912</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>1579.218595535448</v>
+        <v>1081.006816256062</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1683.236396867662</v>
+        <v>1134.462793894138</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>1534.618309656221</v>
+        <v>989.0320572948583</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>1502.621677779634</v>
+        <v>1094.766798281688</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>1315.748904645114</v>
+        <v>1064.618226833974</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>1467.564513924251</v>
+        <v>1121.187232137098</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>1544.307957287933</v>
+        <v>1106.111149171328</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>1588.88298387246</v>
+        <v>1060.97912178405</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>1826.302967596853</v>
+        <v>1025.410492080802</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>1353.315333374005</v>
+        <v>1040.86198286494</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1446.97062813483</v>
+        <v>1104.401200470286</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>1550.983838900532</v>
+        <v>1118.878007117768</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>1730.974098270212</v>
+        <v>1103.272385205901</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>1572.635594163714</v>
+        <v>1030.752684961556</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1364.19304450241</v>
+        <v>1053.855871832819</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>1841.427590555786</v>
+        <v>1066.613845062872</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>1518.69561068721</v>
+        <v>1088.854315742575</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>1522.321557359912</v>
+        <v>1090.355282639222</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>1687.781210454073</v>
+        <v>1072.303043142884</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1453.108382919789</v>
+        <v>1080.390297767628</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1511.449628071415</v>
+        <v>1103.487148775328</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>1524.106880373377</v>
+        <v>1095.17303399335</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>1577.4467106271</v>
+        <v>1106.504888479294</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>1700.459229524288</v>
+        <v>1123.865956309081</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>1710.435803699011</v>
+        <v>1064.863234387505</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>1734.458961273338</v>
+        <v>1059.093059759572</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>1509.714815807237</v>
+        <v>986.7452057990188</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>1520.257422099269</v>
+        <v>1090.536522715127</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>1592.582570308327</v>
+        <v>1048.716873282336</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>1367.980449653358</v>
+        <v>1043.432837276408</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>1249.881149142101</v>
+        <v>1020.97481540685</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>1474.563761627728</v>
+        <v>1130.966253092554</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>1606.607943584197</v>
+        <v>1101.000793767575</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>1693.071210144049</v>
+        <v>1054.061351306716</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1638.212280974636</v>
+        <v>1054.200408680765</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>1393.967839477981</v>
+        <v>1068.645208756536</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>1454.810025340675</v>
+        <v>1063.859810311544</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>1228.943833438986</v>
+        <v>1060.017989550181</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>1638.781415530699</v>
+        <v>1062.331942049249</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>1682.174870118371</v>
+        <v>1067.29745478171</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>1434.476617787177</v>
+        <v>1046.676980281793</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>1556.76264677343</v>
+        <v>1039.334228727182</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>1396.59993997229</v>
+        <v>1095.903611594545</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1640.876772961206</v>
+        <v>1040.232152971029</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1571.661885069533</v>
+        <v>984.7546277573376</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>1713.484301464791</v>
+        <v>1111.273088797716</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1088.276604070632</v>
+        <v>1116.562248492691</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1006.63521149988</v>
+        <v>1091.969134479165</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1058.544851043968</v>
+        <v>1055.820218160565</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1012.379101873995</v>
+        <v>1023.526483699762</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1055.638273347774</v>
+        <v>1139.998994662095</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1056.55253764474</v>
+        <v>1087.745212641797</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1075.636035207129</v>
+        <v>1097.020295908214</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1075.824121076154</v>
+        <v>1128.005891629914</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1059.839946286622</v>
+        <v>1032.304087043695</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1010.546821880952</v>
+        <v>1048.946771180925</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1050.153618357417</v>
+        <v>1050.391152442074</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1052.718113304721</v>
+        <v>1030.375562320957</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1085.657243192305</v>
+        <v>1090.112422627832</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1084.618778415351</v>
+        <v>1045.776010675453</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1029.256599823775</v>
+        <v>1085.821889145267</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1115.676040514278</v>
+        <v>1050.610498390074</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1139.654401232903</v>
+        <v>1106.926757426763</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1103.882753786313</v>
+        <v>1085.863467741861</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1032.301363812897</v>
+        <v>1101.574470763234</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1090.671203589957</v>
+        <v>1059.015160543453</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1008.652561284995</v>
+        <v>1091.296753107129</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>969.5573871401014</v>
+        <v>1104.015466618684</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1013.882767910871</v>
+        <v>1066.891333942874</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1008.907900634366</v>
+        <v>1133.573735077825</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1041.353364304203</v>
+        <v>1105.47029706404</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1168.733587177692</v>
+        <v>1091.593660550456</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1001.168196601803</v>
+        <v>1086.940344918533</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1016.217108939396</v>
+        <v>1082.359510871965</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1024.91199680432</v>
+        <v>1118.658401115347</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1067.217586970524</v>
+        <v>1104.791562214046</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1049.188114466519</v>
+        <v>1125.702670817288</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1135.54101413665</v>
+        <v>1137.264042669549</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1063.98370784557</v>
+        <v>1052.255344445826</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1035.564631490023</v>
+        <v>1078.887584363936</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1005.699629783714</v>
+        <v>1046.848199965448</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1021.811316451889</v>
+        <v>1060.385792140613</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1054.972302641746</v>
+        <v>1068.966117868932</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1069.645900443961</v>
+        <v>1051.506246949834</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1036.470493808988</v>
+        <v>1071.794417084737</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1002.739688643116</v>
+        <v>1034.770027673053</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1063.279973036402</v>
+        <v>1017.126709124877</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1040.433664860678</v>
+        <v>1082.999650489126</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1081.528027326953</v>
+        <v>1037.477278256079</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1099.216946084563</v>
+        <v>1122.392532636122</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1116.356353030934</v>
+        <v>1066.173109014751</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1021.050766075015</v>
+        <v>1160.522716627567</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1075.19341725811</v>
+        <v>1161.57196701037</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1065.427521671532</v>
+        <v>1117.691161311874</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1097.876224995415</v>
+        <v>1056.289620951027</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1054.301902588357</v>
+        <v>1129.049779836829</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1047.530560578796</v>
+        <v>1104.708468059069</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1164.919019601924</v>
+        <v>1103.28732590497</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1069.524122723019</v>
+        <v>1123.470003433069</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1108.806663816632</v>
+        <v>1028.190514437044</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1060.238896849776</v>
+        <v>1068.380744050671</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1107.635610335807</v>
+        <v>1103.498139769898</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1019.454933626741</v>
+        <v>1100.307801987787</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1026.605800054013</v>
+        <v>1052.807207368277</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>987.5381185527776</v>
+        <v>1102.300197725669</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1043.861835137363</v>
+        <v>1087.611766295032</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1058.906604608221</v>
+        <v>1099.972765072985</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1028.691327347873</v>
+        <v>1040.892516136534</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1094.20285228532</v>
+        <v>1079.295950827402</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1120.689077234109</v>
+        <v>1062.483776462213</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1122.801590486029</v>
+        <v>1064.507402299772</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1133.971125811322</v>
+        <v>1072.182605116041</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1064.137385031797</v>
+        <v>1088.346295002903</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1041.005390864358</v>
+        <v>1131.797922361273</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1105.456482978195</v>
+        <v>1106.094883185179</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1074.385218772043</v>
+        <v>1156.335617327831</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1111.424268027374</v>
+        <v>1100.071964189532</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1097.583457863226</v>
+        <v>1067.417857443945</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1067.107949689937</v>
+        <v>1048.839911920992</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1056.72437281312</v>
+        <v>1096.104224436277</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1033.23188060407</v>
+        <v>1148.098349725795</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1103.729259373222</v>
+        <v>1097.651058585364</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1029.817600499809</v>
+        <v>1031.949442717694</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1089.997915201551</v>
+        <v>1041.804600162305</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1126.335172369871</v>
+        <v>1097.175205713518</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1078.6593414632</v>
+        <v>1044.51430518971</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1044.589330829809</v>
+        <v>1098.051467369036</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1104.804745290096</v>
+        <v>1052.141996595731</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1095.022837631682</v>
+        <v>1077.116641920128</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1077.534012843268</v>
+        <v>1043.897678639568</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>1104.852398359609</v>
+        <v>1053.652215868083</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1161.448764713642</v>
+        <v>1080.668543537053</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1076.99566884249</v>
+        <v>1072.926111233377</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1030.525752073594</v>
+        <v>1026.813023776994</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1028.417417221994</v>
+        <v>1107.555778546674</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1200</v>
+        <v>1162.838195304464</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1102.275005343393</v>
+        <v>1075.202299743632</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1048.461159968979</v>
+        <v>1165.328804773682</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1031.196866980666</v>
+        <v>1142.164766865156</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1017.60776367737</v>
+        <v>1107.240998218198</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1094.421274622245</v>
+        <v>1033.107939593287</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1030.109080230857</v>
+        <v>1083.655468030938</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1120.026818483095</v>
+        <v>1103.399844905618</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1114.853587585926</v>
+        <v>1097.260438019754</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>998.5345186570585</v>
+        <v>1107.936183655638</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>1108.351811799593</v>
+        <v>1126.350556366621</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1059.531568009585</v>
+        <v>1130.846264765038</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1056.790351755326</v>
+        <v>1128.505867215355</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1062.425434037387</v>
+        <v>1073.859102640475</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1070.764967986394</v>
+        <v>1053.766584351538</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1081.895365630669</v>
+        <v>1137.140707427992</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1085.566948867911</v>
+        <v>1087.040568454133</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1043.635542440971</v>
+        <v>1065.397691173713</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>1180.845726050342</v>
+        <v>1011.543411227156</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1132.252851104794</v>
+        <v>1042.647438180994</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1063.37294971159</v>
+        <v>1029.863230245796</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1051.829878000229</v>
+        <v>1099.14949363844</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1084.362808929714</v>
+        <v>1033.967977776817</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1034.760775693227</v>
+        <v>1098.653306756307</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1087.715647982375</v>
+        <v>984.1739346074745</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>1051.411967777351</v>
+        <v>1043.757988578139</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1061.620646567782</v>
+        <v>1146.215906601037</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1067.820426832566</v>
+        <v>1108.805224120632</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1057.647564266545</v>
+        <v>1186.98316220324</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1049.026422543268</v>
+        <v>1073.927022208047</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1042.254321993243</v>
+        <v>1148.728893875373</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1097.658027397058</v>
+        <v>1021.071089381556</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1036.160310751861</v>
+        <v>1110.405336989189</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1095.405245777572</v>
+        <v>1131.613692967778</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1065.078956252997</v>
+        <v>1085.24054700837</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1074.180411940778</v>
+        <v>1088.235074633182</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>1092.950916490509</v>
+        <v>1066.959345570442</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1062.712264830761</v>
+        <v>1157.829257128312</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1092.098688445406</v>
+        <v>1071.375200377571</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1042.574117334661</v>
+        <v>1117.116159773498</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1010.201862406467</v>
+        <v>1022.385250997327</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>1062.867333623124</v>
+        <v>1085.727349469204</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1149.865794398503</v>
+        <v>1033.673960397538</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1088.369521287156</v>
+        <v>1065.609530725081</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1025.739000110399</v>
+        <v>1071.114287154212</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1093.063248516551</v>
+        <v>1100.230903866286</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1092.159106666232</v>
+        <v>1044.358620064426</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>1164.257128245718</v>
+        <v>1114.084749281706</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1037.64075437858</v>
+        <v>1079.389384707148</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>1087.376200630405</v>
+        <v>1051.744068633047</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1057.7857304556</v>
+        <v>1083.79388260701</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1080.876043314641</v>
+        <v>1147.600186371254</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1116.126411240359</v>
+        <v>1125.821364559156</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>1000.212233800545</v>
+        <v>1089.305076555007</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1058.705242865665</v>
+        <v>1119.604183861072</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1115.36317260062</v>
+        <v>1117.476082139383</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>1146.37458033158</v>
+        <v>1118.223805658334</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1104.644188227448</v>
+        <v>1139.014632983811</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1095.751808433775</v>
+        <v>1056.999274410275</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>1127.196544169424</v>
+        <v>1097.51102558948</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1106.398449893501</v>
+        <v>1151.352171534352</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1071.093524364166</v>
+        <v>1138.819004224614</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1142.15190949914</v>
+        <v>1107.640079871194</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>1025.082818054938</v>
+        <v>1152.499204775366</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1141.067731566451</v>
+        <v>1080.973153095681</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1060.466484627623</v>
+        <v>1064.138414052198</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>1112.070146848597</v>
+        <v>1089.246257191282</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1092.661396450762</v>
+        <v>1088.730511949436</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>1053.519525141889</v>
+        <v>1114.759029161049</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1113.167059710711</v>
+        <v>1109.088690656225</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1053.234801451983</v>
+        <v>1092.126939654602</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>1011.783149413214</v>
+        <v>1071.87308171836</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>1106.959809273582</v>
+        <v>1095.254443961519</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>1128.371184477906</v>
+        <v>1100.719886139149</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1007.535987584495</v>
+        <v>1143.106161017557</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1083.665434123722</v>
+        <v>1127.018050446072</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>1042.811281153991</v>
+        <v>1058.520866631491</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1068.938378847645</v>
+        <v>1115.133029476463</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>1038.697101562532</v>
+        <v>1092.061800269835</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>1093.538914877873</v>
+        <v>1113.716429123425</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>990.531441458468</v>
+        <v>1068.151737407271</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>1079.940839070244</v>
+        <v>1098.870873148293</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1131.372948991641</v>
+        <v>1078.332068081979</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>1100.382342603581</v>
+        <v>1071.714706722396</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1086.883220888608</v>
+        <v>1053.167395834182</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1043.206968712399</v>
+        <v>1081.943579609478</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1094.898690822879</v>
+        <v>1121.503236212362</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>1025.220192035257</v>
+        <v>1108.03362365024</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1061.820047674746</v>
+        <v>1043.367257705839</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>1064.539475619741</v>
+        <v>1020.363614311604</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1082.104625552176</v>
+        <v>1092.278691840262</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>1054.412612567277</v>
+        <v>1093.280165450171</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1015.086299586562</v>
+        <v>1120.643617563087</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1098.795415015536</v>
+        <v>1139.196119236969</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>1045.751391807296</v>
+        <v>1075.785744067663</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>1029.485761398733</v>
+        <v>991.317056973174</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>1083.980194443933</v>
+        <v>1116.50092688808</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1093.150667656509</v>
+        <v>1102.167822116782</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>1026.112466648194</v>
+        <v>1114.678273977223</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1100.074782271698</v>
+        <v>1070.331930370892</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1028.90921004355</v>
+        <v>1117.901647988885</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1039.054440464438</v>
+        <v>1037.135357984781</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1033.072899442785</v>
+        <v>1069.762586210154</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1089.113060407036</v>
+        <v>1077.665484361912</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1047.328731358416</v>
+        <v>1073.546057711841</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>1039.652436735714</v>
+        <v>1061.66364135007</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>1070.82655287064</v>
+        <v>1089.475892613114</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1105.312764098316</v>
+        <v>1135.138433867597</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1022.983728796015</v>
+        <v>1046.282651936463</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1081.174908815356</v>
+        <v>1094.89731648919</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>1143.720694121443</v>
+        <v>1065.208654836521</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>1114.677206136481</v>
+        <v>1061.015609588622</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>996.1702715521424</v>
+        <v>1076.652851499531</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>1117.35894962152</v>
+        <v>1085.148599912684</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1085.78012250309</v>
+        <v>1083.737764412113</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>1098.311342844654</v>
+        <v>1080.453476881895</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1089.778423199686</v>
+        <v>1094.083468980369</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1125.413062978658</v>
+        <v>1062.16716575661</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1057.466365594342</v>
+        <v>1146.972417872915</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>1123.598926027161</v>
+        <v>1039.490059301251</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>1001.508589028686</v>
+        <v>1084.715630396054</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>1101.780636524109</v>
+        <v>1118.704292759648</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>1018.631868787413</v>
+        <v>1055.107163832697</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>1066.238167630508</v>
+        <v>1056.017304408673</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>1083.058744666057</v>
+        <v>1028.678607348229</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1037.127695838357</v>
+        <v>1103.004500027724</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1076.578640546927</v>
+        <v>1096.702005279949</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>1061.544711481609</v>
+        <v>1095.99047551426</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>1004.478081786901</v>
+        <v>1099.374928897633</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>1027.102524141352</v>
+        <v>1051.412821466565</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>1108.656948837735</v>
+        <v>1088.874982608022</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>1043.255681395313</v>
+        <v>1063.459432729748</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>1052.561995207873</v>
+        <v>1099.462146818571</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1074.90116806487</v>
+        <v>1101.941225986647</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>1051.365315893223</v>
+        <v>1067.560888378085</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>1083.997088378694</v>
+        <v>1049.127289473671</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>1094.299883616091</v>
+        <v>1101.011989712226</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>1083.722001706858</v>
+        <v>1069.468080498117</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1130.911211881757</v>
+        <v>1029.47507442925</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>1099.827936391694</v>
+        <v>1107.294608846549</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>1053.609581025225</v>
+        <v>1090.692682193264</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1073.130144772806</v>
+        <v>1005.011182304794</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>1117.725317952422</v>
+        <v>1091.389049910986</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>1005.941159406485</v>
+        <v>1084.484317037831</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1013.02527870787</v>
+        <v>1105.872461621172</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>1146.925161453318</v>
+        <v>1105.621554273704</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>1045.238274959466</v>
+        <v>1088.654282179756</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1056.917221894394</v>
+        <v>1053.412748132446</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1070.304368500113</v>
+        <v>1063.747994199009</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1119.776249773406</v>
+        <v>1085.544814255782</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>1077.569858409931</v>
+        <v>1095.080503443333</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>1107.269690618833</v>
+        <v>1090.882122364355</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>992.7069155264069</v>
+        <v>1059.093818922901</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>1044.956861241649</v>
+        <v>997.7428874632319</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>1096.004552402453</v>
+        <v>1076.456724245802</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>1087.217788156589</v>
+        <v>1148.56239881036</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1102.961498756401</v>
+        <v>1059.793514681608</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1110.937387775869</v>
+        <v>1099.791328218202</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>1069.462592042234</v>
+        <v>1130.362904116297</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>1116.008973015982</v>
+        <v>1109.173476588428</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1078.095688675552</v>
+        <v>1105.76196372331</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>1128.448111934849</v>
+        <v>1075.403154693494</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>1052.453702989869</v>
+        <v>1042.327846285956</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>1056.030003473351</v>
+        <v>1089.751882572744</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>1086.605992505788</v>
+        <v>1056.479469606652</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>1123.220541193228</v>
+        <v>1076.975037052777</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>1066.543363299148</v>
+        <v>1080.773759573373</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1079.805339024574</v>
+        <v>1085.333628168085</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>1068.166141517864</v>
+        <v>1120.909518743595</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1074.566005731231</v>
+        <v>1040.649110294447</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>1106.685725293764</v>
+        <v>1096.343990312384</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>1109.209808582188</v>
+        <v>1071.586125964796</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>1083.247920800356</v>
+        <v>1064.213380215736</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>1041.765327686253</v>
+        <v>1090.798613384687</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>1080.50370010387</v>
+        <v>1102.63100457945</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1024.478990892206</v>
+        <v>1094.875811597297</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>1077.78261327283</v>
+        <v>1034.014839931853</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>1073.806562475224</v>
+        <v>1128.817243345747</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>1065.316248534505</v>
+        <v>1069.382599485532</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>1045.611191260588</v>
+        <v>1093.830766970213</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>1068.255609310896</v>
+        <v>1115.548333511259</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1071.567875778739</v>
+        <v>1121.863830852622</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>1096.558262918158</v>
+        <v>1065.242955647161</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>1091.755363551367</v>
+        <v>1062.095663653885</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1028.244213123668</v>
+        <v>1063.956820982485</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>1070.111683462208</v>
+        <v>1086.102431697199</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>1132.870771877314</v>
+        <v>1019.780526896449</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>1088.661328693162</v>
+        <v>1077.205569615337</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1069.722580933877</v>
+        <v>1082.411507850216</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>1083.370156127254</v>
+        <v>997.0296041356274</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>1097.379470200958</v>
+        <v>1092.976640070826</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1139.139499940628</v>
+        <v>1075.17963076366</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>1097.843781552935</v>
+        <v>1061.282513961556</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>1084.814732994794</v>
+        <v>1123.401563615534</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>1080.665444694823</v>
+        <v>1064.922205864258</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1081.764147567254</v>
+        <v>1167.632140102198</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>1142.660722515901</v>
+        <v>1106.852050138891</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1099.977568299455</v>
+        <v>1117.739592171236</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>1102.234903263049</v>
+        <v>1123.724072029564</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>1073.441128528108</v>
+        <v>1018.729116398311</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>1079.391434666755</v>
+        <v>1074.305876440707</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>1058.624624248408</v>
+        <v>1122.339346653278</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>1067.415615019333</v>
+        <v>1083.436115887915</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1072.945653883271</v>
+        <v>1138.024672423833</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>1044.516570712962</v>
+        <v>1089.995382479703</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1084.493537632864</v>
+        <v>1086.452876503346</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>1037.426797415034</v>
+        <v>1050.229534302826</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>1082.390253064385</v>
+        <v>1112.556398446002</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>1038.838599857861</v>
+        <v>1092.404115999078</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1119.159485504941</v>
+        <v>1119.483051773852</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1063.466598359376</v>
+        <v>1050.912095287167</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>1096.726294514535</v>
+        <v>1057.738798379303</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>1082.674782390089</v>
+        <v>1101.657231063645</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>1096.853266620117</v>
+        <v>1111.293086214881</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1031.558071026265</v>
+        <v>1041.445340237446</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1061.103495755558</v>
+        <v>1062.733424155675</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>1060.881387176802</v>
+        <v>1111.549899027464</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>1157.874762893897</v>
+        <v>1057.798921907202</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>1044.870677067589</v>
+        <v>1106.49681681766</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>1062.498338099957</v>
+        <v>1022.520666986042</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1073.93940800421</v>
+        <v>1032.661057699042</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>1101.147379258134</v>
+        <v>1073.141768563308</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>1020.572063861014</v>
+        <v>1128.356085528243</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>1078.934363188308</v>
+        <v>1077.713267303056</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>1049.297223090115</v>
+        <v>1079.572820071652</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>1069.081570376451</v>
+        <v>1088.947134796813</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>1096.39262511915</v>
+        <v>1070.788703231281</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1105.742404739076</v>
+        <v>1054.23755426533</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>1064.76343089126</v>
+        <v>1135.292605051818</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>1091.704630670852</v>
+        <v>1069.815676602857</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1079.547377989482</v>
+        <v>1155.405221431668</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>1088.134427546591</v>
+        <v>1109.651249370194</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>1064.983682025031</v>
+        <v>1099.68353201654</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>1005.308790189604</v>
+        <v>1058.410765298809</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>1099.182576765348</v>
+        <v>1066.049706305696</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1116.418887123453</v>
+        <v>1103.855217626787</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>1046.967386691417</v>
+        <v>1098.839313170448</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>1014.622080433803</v>
+        <v>1097.340700256145</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>1066.03065896346</v>
+        <v>1034.623196521324</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>1085.864070551257</v>
+        <v>1087.225807177535</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1069.81134849841</v>
+        <v>1103.559109917969</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>1044.25568087049</v>
+        <v>1069.878632325376</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>974.5530416440131</v>
+        <v>1084.18606499121</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>1073.01917211844</v>
+        <v>1027.290912279941</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>1056.585532916323</v>
+        <v>1110.322883359888</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>1054.572277332184</v>
+        <v>1116.106943686184</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>1066.44407112214</v>
+        <v>1129.400366968541</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1078.128806087891</v>
+        <v>1140.976903070845</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>1059.597237951758</v>
+        <v>1076.230749668968</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>1111.105622028614</v>
+        <v>1138.016187021746</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>1053.313290833343</v>
+        <v>1061.134998237083</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>1092.900541346811</v>
+        <v>1016.00707446422</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1046.843543777383</v>
+        <v>1096.781154335079</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>1033.604350191313</v>
+        <v>1107.80250168008</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>1118.391513727862</v>
+        <v>1081.866868404094</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>1051.567084332097</v>
+        <v>1125.421388257215</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1047.276962431482</v>
+        <v>1041.965620207948</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>1052.030454019447</v>
+        <v>1120.795721815187</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>1040.008877984719</v>
+        <v>1084.895770841771</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1113.473768374257</v>
+        <v>1150.666688358549</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>1107.47637694953</v>
+        <v>1043.122966518482</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>1090.97652944914</v>
+        <v>1066.474739892442</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1111.834449407195</v>
+        <v>1077.936735668651</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>1079.009694790697</v>
+        <v>1045.195975574132</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>1073.701006675834</v>
+        <v>993.2553824962541</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1068.565690131463</v>
+        <v>1090.498273371592</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>1047.128273754364</v>
+        <v>1091.424014090764</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>1100.465496316026</v>
+        <v>1036.823362588846</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>1088.790960777237</v>
+        <v>1099.547343286208</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>1040.35259336462</v>
+        <v>1080.195330844892</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>1023.193285573417</v>
+        <v>1059.399987201008</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1083.8618925985</v>
+        <v>1073.727015138889</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1041.914045210519</v>
+        <v>1039.998918508712</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>1087.659717091782</v>
+        <v>1083.404737005094</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>1040.712642100528</v>
+        <v>1050.809716598649</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1047.483099716651</v>
+        <v>1048.186581044845</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>1019.753020561845</v>
+        <v>1045.923835764554</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>1099.327780399897</v>
+        <v>1024.981549398831</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>1052.005370018566</v>
+        <v>1081.270073404196</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>1085.329565236869</v>
+        <v>1074.937672099749</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>1080.3938805457</v>
+        <v>1097.400535558848</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>1059.691958726748</v>
+        <v>1071.234605497367</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>1044.411323786182</v>
+        <v>1154.396718149791</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1060.422948112124</v>
+        <v>1106.295982429677</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>1124.631152854767</v>
+        <v>1098.185990143213</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1043.991334814966</v>
+        <v>1065.69219474118</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>1125.071474281238</v>
+        <v>1154.716684959226</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>1060.066382234523</v>
+        <v>1082.158498310745</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>1117.878529843976</v>
+        <v>1075.559927898697</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>1122.521557706653</v>
+        <v>1057.552616127401</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>1121.947545814315</v>
+        <v>1123.154355077793</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>1071.212414552037</v>
+        <v>1079.378288878846</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>1083.139649702862</v>
+        <v>1030.996311064928</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>997.9646922940958</v>
+        <v>1056.874039729488</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>1042.456988492013</v>
+        <v>1050.037726392836</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>1096.515294568344</v>
+        <v>1066.760015758269</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1058.812500504414</v>
+        <v>1044.178156513731</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1113.80778368342</v>
+        <v>1026.45196033832</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>1043.800225690492</v>
+        <v>1098.520422954226</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>1096.905826855988</v>
+        <v>1051.980990185359</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>1082.430357679757</v>
+        <v>1103.206606290781</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>1067.623554099464</v>
+        <v>1111.221427007805</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>1055.492145532061</v>
+        <v>1129.477691966939</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>1092.504147922926</v>
+        <v>1100.928304885262</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1036.843458505431</v>
+        <v>1130.176190655816</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1050.865327455288</v>
+        <v>1081.773567823074</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1015.894003056414</v>
+        <v>1153.326961565124</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1009.476711476979</v>
+        <v>1087.456043163469</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>1037.829858960845</v>
+        <v>1073.698650339753</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>1017.907149662618</v>
+        <v>1073.202489463528</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>1099.503921525274</v>
+        <v>1070.381879630087</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>1038.456647703768</v>
+        <v>1106.771799480612</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>1029.024583079304</v>
+        <v>1114.470948162142</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>1147.611373941583</v>
+        <v>1067.308217310343</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>1037.538392778177</v>
+        <v>1038.280429209093</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>1072.536468505716</v>
+        <v>1119.861639202896</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1122.993348071442</v>
+        <v>1065.44575599013</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>1136.77202907736</v>
+        <v>986.7287229083184</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>1093.98433457205</v>
+        <v>1108.147301730661</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>999.4423168012374</v>
+        <v>1043.657440033225</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>1077.421831549385</v>
+        <v>1051.122737412875</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>1023.370995955281</v>
+        <v>1122.932519092403</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1102.765694162969</v>
+        <v>1063.248823601917</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>1125.536096234069</v>
+        <v>1102.834751074399</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1055.748441636057</v>
+        <v>1100.432355800728</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1153.487706649492</v>
+        <v>1089.183383705791</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>1095.293613130314</v>
+        <v>1133.188045174338</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>1053.048252312925</v>
+        <v>1046.533517559084</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>1055.28360827642</v>
+        <v>1052.615596179159</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>1033.318139908263</v>
+        <v>1058.583640177253</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>1098.35567790761</v>
+        <v>1110.437525481319</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>1004.637037512576</v>
+        <v>1103.802562003967</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>1034.283314855388</v>
+        <v>1058.327398600802</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1064.367211286438</v>
+        <v>1125.604787986506</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>1094.073882858961</v>
+        <v>1121.015084490178</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>1113.655811750486</v>
+        <v>1115.707057451724</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>1042.012487637413</v>
+        <v>1059.588129155158</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>1054.780551463233</v>
+        <v>1062.017608282494</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1090.24680222072</v>
+        <v>1050.17459016488</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1086.296953545734</v>
+        <v>1036.279480941082</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>1061.369399484956</v>
+        <v>1070.82656149472</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>1030.461227169752</v>
+        <v>1111.830466748762</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>1080.170833829068</v>
+        <v>1108.411088460972</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>1048.15697811505</v>
+        <v>1101.179139434402</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>1115.484588226925</v>
+        <v>1116.998118747591</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>1065.850348488932</v>
+        <v>1075.9116993926</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1055.098157940772</v>
+        <v>1040.78301760232</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>1033.820729700316</v>
+        <v>1115.382516705557</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>1094.640016845384</v>
+        <v>1024.526264712308</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>1100.860419125099</v>
+        <v>1078.525066730364</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>1107.113199742083</v>
+        <v>1035.431415379339</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1071.412272414403</v>
+        <v>1145.541402860028</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>1035.647030080915</v>
+        <v>1104.387181494972</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>1112.431411594065</v>
+        <v>1080.54831806093</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>1102.44291963033</v>
+        <v>1021.128180845269</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1074.135292962449</v>
+        <v>1079.804484520387</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>1068.344134466945</v>
+        <v>1117.9973641829</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>1097.275817165382</v>
+        <v>1071.068901637227</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1045.934254022513</v>
+        <v>1123.066721700465</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>1150.874562121272</v>
+        <v>1089.600251599785</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>1079.218820494628</v>
+        <v>1093.961619034912</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>1046.816506963213</v>
+        <v>1028.377480157591</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1104.422683509055</v>
+        <v>1012.576994870775</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>1093.365582945221</v>
+        <v>1130.58037458661</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>1085.236131379097</v>
+        <v>1102.112209136793</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>1109.780839411153</v>
+        <v>1106.591592667602</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1037.920059005591</v>
+        <v>1116.839486271989</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1101.625013395687</v>
+        <v>1109.427355929153</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>1086.975404357559</v>
+        <v>1090.25611925305</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>1054.859687418909</v>
+        <v>1119.120765414946</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>1077.259999264465</v>
+        <v>950</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1011.07758379848</v>
+        <v>1105.77011568172</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>1059.190141957828</v>
+        <v>1132.618163316457</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>1036.653503233586</v>
+        <v>1109.830164683759</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>1071.937850484158</v>
+        <v>1082.589027850004</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>1101.454284480455</v>
+        <v>1078.313993956101</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>1144.501222828302</v>
+        <v>1163.978370179257</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1078.425090597582</v>
+        <v>1060.169400258247</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>1071.737840965912</v>
+        <v>1104.524617510604</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>1070.640686489983</v>
+        <v>1127.202113162248</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>1032.936196004678</v>
+        <v>1101.794991005503</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1051.718022164129</v>
+        <v>1104.051232170195</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1088.995009411693</v>
+        <v>1097.969757886772</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>1090.125215253094</v>
+        <v>1129.21508553464</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>1026.386287930316</v>
+        <v>1078.052776070431</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1063.94566384281</v>
+        <v>1072.452369481343</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>1051.155131059195</v>
+        <v>1068.535899066128</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>1076.044663419109</v>
+        <v>1074.071339275593</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>1050.834887174196</v>
+        <v>1049.6674462551</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>1088.033665888369</v>
+        <v>1053.919246624481</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>1089.622768982313</v>
+        <v>1035.976299939097</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>1038.218985585248</v>
+        <v>1090.650639183084</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>1018.221024294093</v>
+        <v>1065.891986442216</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>1065.579556998262</v>
+        <v>1070.145138695399</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1093.810174403394</v>
+        <v>1091.126459055326</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>1049.425217627647</v>
+        <v>1076.562019806325</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>978.328071808764</v>
+        <v>1119.790152247278</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>1089.836531481394</v>
+        <v>1088.79960940505</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1086.011850852319</v>
+        <v>1039.285678367864</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>1081.322072754851</v>
+        <v>1054.294608454279</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>1057.053104164087</v>
+        <v>1144.933581866031</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1003.700437370988</v>
+        <v>1058.041923187993</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>1069.362829938195</v>
+        <v>1027.715152822595</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>1086.725888787863</v>
+        <v>1068.751591510024</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>1046.445625651277</v>
+        <v>1121.387807493519</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>1084.426908828863</v>
+        <v>1064.819968479443</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1050.25966363835</v>
+        <v>1081.61476634185</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>1107.390347439709</v>
+        <v>1025.875590150039</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>1058.332248906304</v>
+        <v>1119.327073098896</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>1016.37065198358</v>
+        <v>1112.811391673525</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1063.110273612778</v>
+        <v>1093.638497965632</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1124.972592205921</v>
+        <v>1040.237390427585</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>1027.871558551484</v>
+        <v>1054.500688638318</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1071.468830785999</v>
+        <v>1096.539069780906</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>1072.182353702751</v>
+        <v>1175.285069305524</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>1061.695191180751</v>
+        <v>1094.598111086775</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>1009.706222483169</v>
+        <v>1088.514904747235</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>1039.525654797051</v>
+        <v>1076.435321767002</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>1065.277591724666</v>
+        <v>1037.76500359487</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>1035.023732635284</v>
+        <v>1069.673322693026</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1091.086528262279</v>
+        <v>1077.576954892535</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>1044.74603611381</v>
+        <v>1086.842075743053</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>1017.548029525763</v>
+        <v>1134.816914533215</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>1037.198866739853</v>
+        <v>1110.195003202538</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>1089.550168500803</v>
+        <v>1143.909018245558</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>1057.900566006787</v>
+        <v>1149.131149658919</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>1097.998523977018</v>
+        <v>1074.847921919866</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>1046.284780129019</v>
+        <v>1092.506544558218</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>1041.608991222239</v>
+        <v>1100.800206336457</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>1062.234252247918</v>
+        <v>1136.203418200198</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1007.052472998977</v>
+        <v>1003.023442916257</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>1076.133340741027</v>
+        <v>1158.667754046961</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>1041.541840541094</v>
+        <v>1065.023748551128</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>1062.021239409207</v>
+        <v>1092.733880666406</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>1068.472723115943</v>
+        <v>1059.876472761823</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>1149.031904249936</v>
+        <v>1048.413835551163</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>1024.1646403008</v>
+        <v>1038.588767480707</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>1114.93053785548</v>
+        <v>1151.745351204138</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>996.5933272961552</v>
+        <v>1093.163588060898</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>1052.970031100032</v>
+        <v>1089.04842637179</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1112.723159065229</v>
+        <v>1074.804207657397</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>1079.474838299291</v>
+        <v>1166.216375133163</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>1033.968157053635</v>
+        <v>1077.837321446873</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>1011.514494501527</v>
+        <v>1064.62047031854</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>1113.296245936335</v>
+        <v>1072.781626709625</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1112.850612019394</v>
+        <v>1082.542608951955</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>1119.623432053203</v>
+        <v>1006.723496203732</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>1061.083055907645</v>
+        <v>1124.867933364631</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1133.533245824174</v>
+        <v>1075.83448339333</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1083.553447006394</v>
+        <v>1088.418589431786</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>1070.41449669432</v>
+        <v>1095.832301881788</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>1023.708963395031</v>
+        <v>1103.69193626886</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1155.142803437244</v>
+        <v>1114.183334995438</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>1097.205380590916</v>
+        <v>1047.816993436275</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1101.885421415592</v>
+        <v>1094.359114642416</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1093.315505782052</v>
+        <v>1057.203893648706</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1100.786962428615</v>
+        <v>1056.560111975466</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1019.960878788741</v>
+        <v>1095.647764878068</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1049.673714476978</v>
+        <v>1068.704016046501</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>1118.503676357973</v>
+        <v>1099.30730396275</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1151.144161020497</v>
+        <v>1074.110650902564</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>1049.876790264566</v>
+        <v>1085.484927906499</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>1108.177961770164</v>
+        <v>1072.699729519908</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>1077.728727003141</v>
+        <v>1142.474496468448</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>1047.729172321604</v>
+        <v>1090.552935775021</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>1047.910820079946</v>
+        <v>1069.01029661969</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1092.300322916637</v>
+        <v>1070.537471860735</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>1151.929438239481</v>
+        <v>1073.048091500767</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>1054.716775361701</v>
+        <v>1101.903480107938</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>1049.787038475776</v>
+        <v>1041.129169537454</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1082.599501691589</v>
+        <v>1102.607626616396</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1095.549269855154</v>
+        <v>1067.47391800142</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1026.252316051193</v>
+        <v>1042.573702213014</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>1065.914153771757</v>
+        <v>1066.357720611572</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1132.515844961919</v>
+        <v>1126.710976416459</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>1066.213730394962</v>
+        <v>1140.620168554208</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1111.896798672012</v>
+        <v>1156.77523462775</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>1080.20765828447</v>
+        <v>1084.3596053169</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1114.504221406079</v>
+        <v>1075.697600657301</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>968.4316219654288</v>
+        <v>1084.208402322366</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>981.8720838829781</v>
+        <v>1117.220694512427</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>1103.158159987009</v>
+        <v>1124.953268100856</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>1022.141889117987</v>
+        <v>1084.619022789017</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>1061.88058856965</v>
+        <v>1018.355000830951</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>1098.993616195946</v>
+        <v>1127.006010523637</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1098.617410547916</v>
+        <v>1124.489801305956</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>1091.438065241182</v>
+        <v>1086.806615903831</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1056.411441192505</v>
+        <v>1091.087839128336</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1105.870822470775</v>
+        <v>1008.277849489421</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>1081.613387520266</v>
+        <v>1123.862976159686</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>1032.427652643245</v>
+        <v>1095.354586282091</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>1032.650027755914</v>
+        <v>1080.895304679319</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>1127.010429530204</v>
+        <v>1060.83910295386</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1057.743242442346</v>
+        <v>1127.628644153001</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1076.650516045351</v>
+        <v>1121.924645438962</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>1079.278453243565</v>
+        <v>1134.389252280909</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1087.089074212143</v>
+        <v>1055.423174945155</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>1116.973589444125</v>
+        <v>1120.249577537133</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>1044.187679041696</v>
+        <v>1126.004272398324</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1053.946072852597</v>
+        <v>1091.722524624439</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>1117.106328198968</v>
+        <v>1093.75402851951</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>1059.031816691485</v>
+        <v>1098.695159174229</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>1024.578758340488</v>
+        <v>1152.771872487437</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>1050.650860262693</v>
+        <v>1109.890106320246</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1086.182837453378</v>
+        <v>1036.475016680422</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1060.225534061769</v>
+        <v>1091.826681970781</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>1074.915528151269</v>
+        <v>1141.433981050722</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1067.70174307875</v>
+        <v>1107.070876796692</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>1059.284763395857</v>
+        <v>1111.671694138623</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>1126.226897694042</v>
+        <v>1120.205727315692</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>1018.962578032423</v>
+        <v>1096.518034920664</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>1100.266124441882</v>
+        <v>1045.703856593782</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1110.284263389977</v>
+        <v>1117.379159830853</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1077.935467085747</v>
+        <v>1131.341055451509</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>1064.66100556805</v>
+        <v>1100.588607633783</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>1084.732822470615</v>
+        <v>1054.892350051853</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>1048.972492441011</v>
+        <v>1084.044750901607</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1052.150759194157</v>
+        <v>1125.259570408865</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1129.746850193875</v>
+        <v>1076.755558162656</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>1021.729398235642</v>
+        <v>1043.235913267205</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1050.463508598835</v>
+        <v>1047.448871797375</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>1095.155513627311</v>
+        <v>1055.769847982001</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>981.6924254958872</v>
+        <v>1059.155206699767</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>1066.868556920237</v>
+        <v>1106.667789047602</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>1045.46985766037</v>
+        <v>1093.356430559731</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>1071.036697370528</v>
+        <v>1051.811604992832</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>1118.113329488054</v>
+        <v>1114.602307310397</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>1175.499560538348</v>
+        <v>1062.905699501692</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>1019.229823863741</v>
+        <v>1129.698955800259</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>1052.414822277155</v>
+        <v>1083.250320265861</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1003.052953317625</v>
+        <v>1014.94299370178</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1120.473943878749</v>
+        <v>1062.661975435015</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>1010.608234048818</v>
+        <v>1064.442971980696</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1063.736703707896</v>
+        <v>1082.696858397892</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>1045.83486382776</v>
+        <v>1061.512619545059</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>1063.191914065293</v>
+        <v>1133.292242912277</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1066.1333526307</v>
+        <v>1049.852244048029</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>1073.388853318243</v>
+        <v>1104.270310487669</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>1068.739411896856</v>
+        <v>1023.15074907244</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>1058.256706685488</v>
+        <v>1002.662684246451</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>1076.842385329981</v>
+        <v>1035.65594178443</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>1027.822876412276</v>
+        <v>1060.90873519526</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>1074.296268272237</v>
+        <v>1070.223893011334</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>1087.829816846511</v>
+        <v>1074.207803098926</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>1107.80769702779</v>
+        <v>1181.255718823074</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1130.480645829019</v>
+        <v>1094.022603598557</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>1011.982113414841</v>
+        <v>1052.844126133367</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>1043.554375790779</v>
+        <v>1077.305756713475</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1085.007475151253</v>
+        <v>1068.047653397847</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>1059.434730715926</v>
+        <v>1096.840399826385</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>1051.242966175789</v>
+        <v>1115.022889855726</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>1022.73055215848</v>
+        <v>1124.242619687203</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>1080.7848428875</v>
+        <v>1068.246851728144</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>1087.505379261457</v>
+        <v>1087.839043430169</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1074.489206301224</v>
+        <v>1112.694523812517</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>1034.075505665171</v>
+        <v>1135.610356587108</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>1071.824027801197</v>
+        <v>1141.823784844565</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>1131.772628701952</v>
+        <v>1044.628939561317</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>1099.64710604693</v>
+        <v>1124.336193476629</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>1020.186118031644</v>
+        <v>1107.381057450139</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>1051.622883060346</v>
+        <v>1029.099403142539</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>1016.668879445128</v>
+        <v>1109.41008371327</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1059.895056367868</v>
+        <v>1082.107112544659</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>1061.444770205124</v>
+        <v>1095.55792810243</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1105.147479838</v>
+        <v>1051.276371918912</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1084.885394993291</v>
+        <v>1030.699884699456</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>1092.728205715487</v>
+        <v>1096.247473631753</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1049.552976380634</v>
+        <v>1074.556036075551</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>1072.73385553308</v>
+        <v>1098.408381555211</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1117.493267682144</v>
+        <v>1066.328087209746</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>1103.597064177053</v>
+        <v>1067.690164396566</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>1070.936932147597</v>
+        <v>1075.340153788815</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1071.278338056063</v>
+        <v>1075.52290904371</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>1100.622351295728</v>
+        <v>1132.877992928118</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>1036.936384239668</v>
+        <v>1087.919041595997</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>1113.999009236051</v>
+        <v>1088.051251145089</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>1065.175037713067</v>
+        <v>1128.180579545492</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>1069.176921560335</v>
+        <v>1134.663217035539</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1056.353689225766</v>
+        <v>1144.204835268215</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>1081.128270800502</v>
+        <v>1055.629203364804</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1098.13163301737</v>
+        <v>1010.301582010042</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1046.197279310554</v>
+        <v>1067.070866272386</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1079.839218639532</v>
+        <v>1054.066506459899</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>1057.286203956645</v>
+        <v>1100.12933914127</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1073.277578663813</v>
+        <v>1097.750825741125</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>1039.863196623199</v>
+        <v>1124.609818245784</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1017.203127552841</v>
+        <v>1076.820981113007</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1085.900988422073</v>
+        <v>1081.19924874812</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>1112.965699715185</v>
+        <v>1094.246075735602</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1075.894102784395</v>
+        <v>1060.716445223943</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1127.807929339635</v>
+        <v>1046.189163010873</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1016.996226334264</v>
+        <v>1093.243617620699</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>1070.173745831359</v>
+        <v>1063.61609638446</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>994.2381530121243</v>
+        <v>1108.478754042126</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1101.329684448662</v>
+        <v>1110.721267607177</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>1066.79710830922</v>
+        <v>1061.428960703523</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1069.26460262072</v>
+        <v>1047.554743116106</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>1085.38364935778</v>
+        <v>1150.079051248785</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>1027.443704015734</v>
+        <v>1072.358890710004</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>1035.262435696039</v>
+        <v>1060.418590647387</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>1062.773331850302</v>
+        <v>1074.388807296865</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1110.589094808088</v>
+        <v>1064.756559250674</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>1121.66563809609</v>
+        <v>1044.758697981584</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>1145.224114311881</v>
+        <v>1095.211193119478</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1054.479280311773</v>
+        <v>1119.007444235984</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>1068.799885955331</v>
+        <v>1089.660710419318</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>1074.693002383743</v>
+        <v>1063.977930817387</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>1024.057337498707</v>
+        <v>1092.721826493265</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1070.028758682065</v>
+        <v>1100.564922703618</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>1080.743465404953</v>
+        <v>1087.998239214233</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>1129.400602987414</v>
+        <v>1071.530429545046</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1014.787501486695</v>
+        <v>1082.736102054443</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>1082.840998125123</v>
+        <v>1161.264398132615</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>1120.843424922254</v>
+        <v>1095.042161874524</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>1057.561619050308</v>
+        <v>1057.059483950485</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>1072.1133957919</v>
+        <v>1035.021490709184</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1092.460612046493</v>
+        <v>1078.48148099304</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>1088.524894772338</v>
+        <v>1055.45661835511</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1090.491671384158</v>
+        <v>1169.689898787633</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>1055.914222373275</v>
+        <v>1081.67354772301</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1014.224467952536</v>
+        <v>1101.275020562155</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1053.722526545943</v>
+        <v>1079.737710216451</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>995.726522036108</v>
+        <v>1085.613127138028</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>1045.078940167249</v>
+        <v>1032.759246230158</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>1056.08920534278</v>
+        <v>1112.997507372533</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>1101.567170902855</v>
+        <v>1142.911079097072</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>1081.711037757112</v>
+        <v>1037.965164435396</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>1067.501308343176</v>
+        <v>1025.599617459085</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>1112.248219069534</v>
+        <v>1074.696928085494</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>1109.679786974983</v>
+        <v>1104.972667158668</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>1092.029446433891</v>
+        <v>1059.349383880646</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1124.027438424579</v>
+        <v>1049.2135374103</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>1093.79787648013</v>
+        <v>1097.592862718101</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>1106.836166568988</v>
+        <v>1056.154429946434</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>1109.080984979215</v>
+        <v>1093.018646250436</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>1081.446177725372</v>
+        <v>1089.827002167664</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1095.672422001762</v>
+        <v>1113.890055183947</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>1080.103077394078</v>
+        <v>1132.539481869313</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>1079.069500478572</v>
+        <v>1086.03475933249</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1089.332656437616</v>
+        <v>1029.736517717721</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1072.815359374096</v>
+        <v>1069.238675943355</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>1025.77848817982</v>
+        <v>1144.784024564937</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>1053.47601890552</v>
+        <v>1084.404980433073</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>1039.457826564828</v>
+        <v>1078.750778784721</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>1007.700879330221</v>
+        <v>1137.535425018134</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>1172.277616025825</v>
+        <v>1070.613611097406</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>1122.100434638983</v>
+        <v>1159.672359767275</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>1029.431741113968</v>
+        <v>1079.511247609562</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>1086.214329106809</v>
+        <v>1112.339150119732</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>1050.381097095346</v>
+        <v>1026.828704467667</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>1133.423948573273</v>
+        <v>1082.225262132323</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>1029.760540387736</v>
+        <v>1116.657985620585</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>1083.451128794944</v>
+        <v>1076.048976893989</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>1031.714000033802</v>
+        <v>1053.345129727341</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1033.512914697594</v>
+        <v>1088.193919270821</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>992.1945902801729</v>
+        <v>1131.206544857352</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1032.580513768377</v>
+        <v>1083.873389646668</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>1072.476201468953</v>
+        <v>1076.101682318357</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1138.404809355667</v>
+        <v>1055.300126796041</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>1026.785339332615</v>
+        <v>1068.431032380305</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1055.766987068137</v>
+        <v>1068.895887166596</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>1075.338820455591</v>
+        <v>1099.125207483391</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1105.006928243313</v>
+        <v>1085.014325500074</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1116.732119996319</v>
+        <v>1050.637284064618</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>1078.362099569614</v>
+        <v>1104.874757106749</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>1072.64234364288</v>
+        <v>1132.104882852118</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>1145.811101067459</v>
+        <v>1102.768212894097</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>1034.895894110556</v>
+        <v>1039.186819276522</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>1045.303316366863</v>
+        <v>1112.081156767973</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>1000.753792959244</v>
+        <v>1104.161111131925</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1069.924585300623</v>
+        <v>1111.433674697677</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1159.564388587177</v>
+        <v>1038.075987791115</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>1090.014096182694</v>
+        <v>1066.69660433942</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1073.168493947551</v>
+        <v>1092.617128136235</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1046.554846418887</v>
+        <v>1057.341480664406</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1085.142518020324</v>
+        <v>1049.580963171277</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>1091.891921314636</v>
+        <v>1063.805068417468</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>1048.323938113887</v>
+        <v>1113.034604581777</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>1141.500272895742</v>
+        <v>1060.582130608244</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>1102.553421071018</v>
+        <v>1046.921768577102</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>1064.201295379207</v>
+        <v>1091.862086752431</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>1022.19473157575</v>
+        <v>1086.181596757672</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1073.607185922624</v>
+        <v>1091.028080120279</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1041.119090822941</v>
+        <v>1109.640226063165</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1031.383121956228</v>
+        <v>1078.601592445707</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>1052.797046335165</v>
+        <v>1109.270772117325</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>1047.795845940016</v>
+        <v>1046.575335857372</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>1027.028787901523</v>
+        <v>1121.668015479911</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1143.043566550231</v>
+        <v>1095.759542870367</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>1028.161098903419</v>
+        <v>1132.259124270055</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>1120.191401561746</v>
+        <v>1103.092940156702</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>1078.686773167393</v>
+        <v>1075.088675731533</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>1154.57902265581</v>
+        <v>1066.536829501757</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>1078.274441929493</v>
+        <v>1122.149918975191</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>1050.623812348359</v>
+        <v>1138.558905049294</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1070.596244132624</v>
+        <v>1119.999263875996</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>1156.604920653084</v>
+        <v>1097.910777389608</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1093.687624554765</v>
+        <v>1016.814187852407</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>1106.241485084971</v>
+        <v>1067.927096563533</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1073.519733876395</v>
+        <v>1108.710605258242</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>1097.094871820776</v>
+        <v>1047.743268491297</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1075.427031735195</v>
+        <v>1024.63713779684</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1048.570852863436</v>
+        <v>1058.769152131848</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>1103.402326672942</v>
+        <v>1108.241987151505</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1077.137049631442</v>
+        <v>1087.373680822338</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>1015.581936183488</v>
+        <v>1131.018860197709</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>1076.70214181449</v>
+        <v>1145.627800974328</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>1104.116461801463</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>1082.802178421598</v>
+        <v>1072.848313130863</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1058.093566177391</v>
+        <v>1080.054348225368</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>1012.673027609992</v>
+        <v>1035.87751268266</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>1062.630725760159</v>
+        <v>1081.072367822667</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>1075.136147170551</v>
+        <v>1086.575075094496</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1078.77941453036</v>
+        <v>1118.393815249724</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1066.335256894987</v>
+        <v>1071.393949248625</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1055.227277973699</v>
+        <v>1127.819010021968</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>1022.546693565017</v>
+        <v>1081.410496031827</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>1065.742182900665</v>
+        <v>1127.539564657312</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>1002.472834439606</v>
+        <v>1079.169589708015</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>1020.721040606968</v>
+        <v>1077.415407743056</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>1040.687715276383</v>
+        <v>1072.091073541864</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>1098.568750178864</v>
+        <v>1084.973489011798</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>1035.406551435761</v>
+        <v>1105.121873014225</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>1089.388845327282</v>
+        <v>1006.027566275265</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1098.875793666458</v>
+        <v>1069.98671764486</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>1114.323087590127</v>
+        <v>1136.74198294501</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>1102.806955223725</v>
+        <v>1038.727131396181</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>1035.887892087605</v>
+        <v>1105.434913427142</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>1060.594946062599</v>
+        <v>1072.296786368367</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>1108.209596685989</v>
+        <v>1170.924513562023</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>1140.51845433529</v>
+        <v>1091.510424261152</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1067.929832310582</v>
+        <v>1010.504332346157</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>997.5048398527792</v>
+        <v>1033.389218392228</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>1079.661264979724</v>
+        <v>1146.796249995739</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>1111.678666717395</v>
+        <v>1130.053276500448</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>1096.16303813631</v>
+        <v>1079.070878042181</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>977.9436305029535</v>
+        <v>1094.256152313438</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>1136.363364012686</v>
+        <v>1093.44210667876</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>1102.042480843307</v>
+        <v>1118.833080699584</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1067.84558003293</v>
+        <v>1126.231885276382</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>1013.863154536979</v>
+        <v>1083.529633123724</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>1084.267130142083</v>
+        <v>1113.142762901356</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>1110.459555900913</v>
+        <v>1047.19160738067</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>1069.03307615643</v>
+        <v>1067.80422626635</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1042.643997516938</v>
+        <v>1047.03866595441</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1127.694243952647</v>
+        <v>1060.241803815349</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>1049.355201078634</v>
+        <v>1114.91555497071</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>1055.386967060951</v>
+        <v>1105.161119888718</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>1061.257503495516</v>
+        <v>1089.965549236213</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>1089.253297657546</v>
+        <v>1038.888390541973</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1030.210957373928</v>
+        <v>1121.253472784618</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>1057.98117828407</v>
+        <v>1135.920191006376</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>1134.664303424801</v>
+        <v>1107.768698685862</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>1087.942654300527</v>
+        <v>1067.96195948973</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>1038.139021549068</v>
+        <v>1111.030964611981</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>1048.281456446134</v>
+        <v>1098.265965646854</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>1076.468490533334</v>
+        <v>1017.575194366118</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>1109.498984829276</v>
+        <v>1087.531728307142</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1034.370159297303</v>
+        <v>1115.822813494292</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1119.31667385535</v>
+        <v>1061.731214912153</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>1094.574305082914</v>
+        <v>1048.627545371004</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>1052.278960900267</v>
+        <v>1113.320101989382</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>1049.990333455167</v>
+        <v>1136.626848549485</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>1038.337846238569</v>
+        <v>1124.030978195763</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1042.182750554109</v>
+        <v>1013.011046601152</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>1038.630423748396</v>
+        <v>1062.291905793381</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>1013.342219006836</v>
+        <v>1106.041910247423</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>1082.008138546687</v>
+        <v>1039.710993896296</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>1031.858786759852</v>
+        <v>1073.411259864894</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1058.440051640719</v>
+        <v>1061.851395204019</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>1035.752019144121</v>
+        <v>1133.91648217306</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>1072.209825876648</v>
+        <v>1053.089274366338</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>1048.846457528008</v>
+        <v>1082.848137318928</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>1128.828260441357</v>
+        <v>1058.869462699642</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>1108.595629500212</v>
+        <v>1054.966917265328</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>1087.44138392297</v>
+        <v>1047.991746915458</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>1023.599088672193</v>
+        <v>1113.494822718258</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>1135.86884122527</v>
+        <v>1069.493767402931</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>1090.840613397415</v>
+        <v>1093.617203276277</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>1064.267552409676</v>
+        <v>1095.961956504812</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>1018.556623936222</v>
+        <v>1113.788643677981</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1075.480831775773</v>
+        <v>1030.679870417962</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>994.5447055975351</v>
+        <v>1102.369503952956</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>1036.041115730832</v>
+        <v>1116.320032820252</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>1056.177948581451</v>
+        <v>1079.866216919228</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>1034.569861479383</v>
+        <v>1081.372300973725</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>1129.083436394772</v>
+        <v>1111.968623117017</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1060.812076847638</v>
+        <v>1110.843570656536</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>1075.677021172722</v>
+        <v>1094.618821584384</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>1074.02519360329</v>
+        <v>1015.608374140689</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>1067.009384830873</v>
+        <v>1059.662693686395</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>1030.889913506184</v>
+        <v>1086.733491298252</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>991.0087401196433</v>
+        <v>1096.901990088074</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1071.858225783564</v>
+        <v>1064.305508118215</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>1048.045818001326</v>
+        <v>1023.955385164776</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>1118.725916430403</v>
+        <v>1052.395287953895</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>1086.586777413368</v>
+        <v>1045.055972451113</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>1099.747678076451</v>
+        <v>1049.392274097363</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>950</v>
+        <v>1070.976429974407</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1086.420094130266</v>
+        <v>1070.63759493706</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1062.990381955911</v>
+        <v>1116.231869120338</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>1051.025563023383</v>
+        <v>1105.266806807453</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1039.1869523037</v>
+        <v>1092.349010463531</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>1075.951176441632</v>
+        <v>1113.446340924571</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>1124.282353610075</v>
+        <v>1074.457581069471</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>1121.346566387545</v>
+        <v>1083.956398740325</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1063.655482691097</v>
+        <v>1040.476144637285</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>1087.137890957119</v>
+        <v>1101.104238844613</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>1077.244689043832</v>
+        <v>1099.845359562081</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>1043.003738768484</v>
+        <v>1126.516372938081</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>1036.306526545932</v>
+        <v>1083.222425104623</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>1074.767297146247</v>
+        <v>1045.454519801357</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>985.925387096511</v>
+        <v>1082.912773991094</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1115.245566912793</v>
+        <v>1079.950675026113</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>1042.931648898826</v>
+        <v>1056.343699405104</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>1091.263171687035</v>
+        <v>1112.25362369708</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>1096.312233186111</v>
+        <v>1087.132302279225</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1082.974583015852</v>
+        <v>1135.901744087473</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>1031.12077279318</v>
+        <v>1001.1056324094</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>1082.286135059252</v>
+        <v>1108.965426211226</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>1075.061308639122</v>
+        <v>1072.02797670018</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1091.530686086554</v>
+        <v>1108.552288284824</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>1068.043535818139</v>
+        <v>1057.875770025961</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1138.608638535159</v>
+        <v>1037.075131546101</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>1110.0000766844</v>
+        <v>1061.334434972988</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>1091.280645690991</v>
+        <v>1101.432224733104</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>1104.240858283827</v>
+        <v>1115.349157807268</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1063.530658399098</v>
+        <v>1092.883759081542</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1070.467592278736</v>
+        <v>1078.823441338499</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1084.162226445939</v>
+        <v>1081.551107959527</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>1122.266597026965</v>
+        <v>1056.662183719207</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>1057.171502791116</v>
+        <v>1086.372633242397</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>1090.905611258538</v>
+        <v>1078.183435321002</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>1110.19865405909</v>
+        <v>1096.409339529318</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1126.005550741002</v>
+        <v>1090.41298309129</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>1077.893879081317</v>
+        <v>1057.486449793088</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>1137.204175091199</v>
+        <v>1053.582735859752</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>1105.646365662423</v>
+        <v>1141.099967808275</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1135.307875088917</v>
+        <v>1041.607798894413</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1110.751980759186</v>
+        <v>1069.173180774776</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>1021.304468187015</v>
+        <v>1084.791237126205</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1078.49414938439</v>
+        <v>1054.609082362921</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1057.24032865417</v>
+        <v>1019.337847085003</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>1088.593023701732</v>
+        <v>1063.403215349914</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>1066.919125110347</v>
+        <v>1140.094054503844</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>1076.931275953615</v>
+        <v>1078.062478010415</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>1062.079852148427</v>
+        <v>1090.235656981476</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>1126.896360795848</v>
+        <v>1031.354243013516</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1076.38072774538</v>
+        <v>1102.467929366265</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>1041.305796541637</v>
+        <v>1076.26956455845</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>1040.065602875823</v>
+        <v>1094.447075794024</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>959.8429969258607</v>
+        <v>1031.796854328744</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>1046.088696412517</v>
+        <v>1072.587712452525</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1109.286942672286</v>
+        <v>1089.4107131593</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>1108.004191711431</v>
+        <v>1120.489787125465</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1137.685940934577</v>
+        <v>1042.039076328788</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>1082.212270824391</v>
+        <v>1058.120141442003</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>1065.488440586697</v>
+        <v>1110.996373350893</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1076.285277562535</v>
+        <v>1110.597283347318</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>1032.08628114194</v>
+        <v>1098.956265122022</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>1053.138981330934</v>
+        <v>1087.276907756634</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>1008.087274518647</v>
+        <v>1101.453803310422</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>1130.133644985708</v>
+        <v>1098.315343412822</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>1060.693349508474</v>
+        <v>1063.194207170838</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>1027.543947337912</v>
+        <v>1086.280734942814</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>1081.006816256062</v>
+        <v>1112.52659618418</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1134.462793894138</v>
+        <v>1114.310510433319</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>989.0320572948583</v>
+        <v>1021.950386161768</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>1094.766798281688</v>
+        <v>1110.075376106277</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>1064.618226833974</v>
+        <v>1080.100569160411</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>1121.187232137098</v>
+        <v>1042.831109999406</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>1106.111149171328</v>
+        <v>1073.5309179346</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>1060.97912178405</v>
+        <v>1085.347599749652</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>1025.410492080802</v>
+        <v>1052.533227272204</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>1040.86198286494</v>
+        <v>1122.582693951394</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1104.401200470286</v>
+        <v>1048.542171985408</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>1118.878007117768</v>
+        <v>1133.983466845377</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>1103.272385205901</v>
+        <v>1094.767239514607</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>1030.752684961556</v>
+        <v>1080.866073601622</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1053.855871832819</v>
+        <v>1104.533966302224</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>1066.613845062872</v>
+        <v>1139.509203805646</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>1088.854315742575</v>
+        <v>1059.95999221293</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>1090.355282639222</v>
+        <v>1106.257604065315</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>1072.303043142884</v>
+        <v>1083.158378876019</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1080.390297767628</v>
+        <v>1178.188140587162</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1103.487148775328</v>
+        <v>1143.612524091978</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>1095.17303399335</v>
+        <v>1080.37428763015</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>1106.504888479294</v>
+        <v>1122.681181663076</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>1123.865956309081</v>
+        <v>1077.494224258985</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>1064.863234387505</v>
+        <v>1095.511842184997</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>1059.093059759572</v>
+        <v>1065.99474948196</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>986.7452057990188</v>
+        <v>1009.434261714816</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>1090.536522715127</v>
+        <v>1080.309988686955</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>1048.716873282336</v>
+        <v>1065.757616849084</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>1043.432837276408</v>
+        <v>1111.747085263827</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>1020.97481540685</v>
+        <v>1073.342123966087</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>1130.966253092554</v>
+        <v>1062.992718121212</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>1101.000793767575</v>
+        <v>1062.432094253024</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>1054.061351306716</v>
+        <v>1013.851221684509</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1054.200408680765</v>
+        <v>1172.994596199462</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>1068.645208756536</v>
+        <v>1115.960246116862</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>1063.859810311544</v>
+        <v>1034.323396622195</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>1060.017989550181</v>
+        <v>1077.004776373551</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>1062.331942049249</v>
+        <v>1149.717134479163</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>1067.29745478171</v>
+        <v>1086.54547612775</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>1046.676980281793</v>
+        <v>1063.077928982075</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>1039.334228727182</v>
+        <v>1054.749006805971</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>1095.903611594545</v>
+        <v>1045.319896880659</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1040.232152971029</v>
+        <v>1078.942443416815</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>984.7546277573376</v>
+        <v>1067.217137014985</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>1111.273088797716</v>
+        <v>1118.529716831014</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_LHC.xlsx
+++ b/datasets/DOE_LHC.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1116.562248492691</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1091.969134479165</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1055.820218160565</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1023.526483699762</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1139.998994662095</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1087.745212641797</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1097.020295908214</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1128.005891629914</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1032.304087043695</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1048.946771180925</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1050.391152442074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1030.375562320957</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1090.112422627832</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1045.776010675453</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1085.821889145267</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1050.610498390074</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1106.926757426763</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1085.863467741861</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1101.574470763234</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1059.015160543453</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1091.296753107129</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1104.015466618684</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1066.891333942874</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1133.573735077825</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1105.47029706404</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1091.593660550456</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1086.940344918533</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1082.359510871965</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1118.658401115347</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1104.791562214046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1125.702670817288</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1137.264042669549</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1052.255344445826</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1078.887584363936</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1046.848199965448</v>
+        <v>990</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1060.385792140613</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1068.966117868932</v>
+        <v>950</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1051.506246949834</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1071.794417084737</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>1034.770027673053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1017.126709124877</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1082.999650489126</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1037.477278256079</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1122.392532636122</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1066.173109014751</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1160.522716627567</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1161.57196701037</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1117.691161311874</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1056.289620951027</v>
+        <v>980</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1129.049779836829</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1104.708468059069</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1103.28732590497</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1123.470003433069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1028.190514437044</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1068.380744050671</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1103.498139769898</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1100.307801987787</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1052.807207368277</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1102.300197725669</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1087.611766295032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1099.972765072985</v>
+        <v>970</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1040.892516136534</v>
+        <v>960</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1079.295950827402</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1062.483776462213</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1064.507402299772</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1072.182605116041</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1088.346295002903</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1131.797922361273</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1106.094883185179</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1156.335617327831</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1100.071964189532</v>
+        <v>970</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1067.417857443945</v>
+        <v>980</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1048.839911920992</v>
+        <v>950</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1096.104224436277</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1148.098349725795</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1097.651058585364</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1031.949442717694</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1041.804600162305</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1097.175205713518</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1044.51430518971</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1098.051467369036</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1052.141996595731</v>
+        <v>970</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1077.116641920128</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1043.897678639568</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>1053.652215868083</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1080.668543537053</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1072.926111233377</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1026.813023776994</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1107.555778546674</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1162.838195304464</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1075.202299743632</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1165.328804773682</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1142.164766865156</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1107.240998218198</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1033.107939593287</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1083.655468030938</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1103.399844905618</v>
+        <v>980</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1097.260438019754</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1107.936183655638</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>1126.350556366621</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1130.846264765038</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1128.505867215355</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1073.859102640475</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1053.766584351538</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1137.140707427992</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1087.040568454133</v>
+        <v>950</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1065.397691173713</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>1011.543411227156</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1042.647438180994</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1029.863230245796</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1099.14949363844</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1033.967977776817</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1098.653306756307</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>984.1739346074745</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>1043.757988578139</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1146.215906601037</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1108.805224120632</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1186.98316220324</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1073.927022208047</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1148.728893875373</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1021.071089381556</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1110.405336989189</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1131.613692967778</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1085.24054700837</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1088.235074633182</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>1066.959345570442</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1157.829257128312</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1071.375200377571</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1117.116159773498</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1022.385250997327</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>1085.727349469204</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1033.673960397538</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1065.609530725081</v>
+        <v>950</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1071.114287154212</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1100.230903866286</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1044.358620064426</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>1114.084749281706</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1079.389384707148</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>1051.744068633047</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1083.79388260701</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1147.600186371254</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1125.821364559156</v>
+        <v>960</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>1089.305076555007</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1119.604183861072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1117.476082139383</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>1118.223805658334</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1139.014632983811</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1056.999274410275</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>1097.51102558948</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1151.352171534352</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1138.819004224614</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1107.640079871194</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>1152.499204775366</v>
+        <v>950</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1080.973153095681</v>
+        <v>960</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1064.138414052198</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>1089.246257191282</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1088.730511949436</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>1114.759029161049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1109.088690656225</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1092.126939654602</v>
+        <v>970</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>1071.87308171836</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>1095.254443961519</v>
+        <v>970</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>1100.719886139149</v>
+        <v>950</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1143.106161017557</v>
+        <v>990</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1127.018050446072</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>1058.520866631491</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1115.133029476463</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>1092.061800269835</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>1113.716429123425</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>1068.151737407271</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>1098.870873148293</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1078.332068081979</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>1071.714706722396</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1053.167395834182</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1081.943579609478</v>
+        <v>960</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1121.503236212362</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>1108.03362365024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1043.367257705839</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>1020.363614311604</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1092.278691840262</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>1093.280165450171</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1120.643617563087</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1139.196119236969</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>1075.785744067663</v>
+        <v>970</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>991.317056973174</v>
+        <v>980</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>1116.50092688808</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1102.167822116782</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>1114.678273977223</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1070.331930370892</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1117.901647988885</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1037.135357984781</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1069.762586210154</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1077.665484361912</v>
+        <v>980</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1073.546057711841</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>1061.66364135007</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>1089.475892613114</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1135.138433867597</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1046.282651936463</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1094.89731648919</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>1065.208654836521</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>1061.015609588622</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>1076.652851499531</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>1085.148599912684</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1083.737764412113</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>1080.453476881895</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1094.083468980369</v>
+        <v>990</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1062.16716575661</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1146.972417872915</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>1039.490059301251</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>1084.715630396054</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>1118.704292759648</v>
+        <v>960</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>1055.107163832697</v>
+        <v>960</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>1056.017304408673</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>1028.678607348229</v>
+        <v>970</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1103.004500027724</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1096.702005279949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>1095.99047551426</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>1099.374928897633</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>1051.412821466565</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>1088.874982608022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>1063.459432729748</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>1099.462146818571</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1101.941225986647</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>1067.560888378085</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>1049.127289473671</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>1101.011989712226</v>
+        <v>950</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>1069.468080498117</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1029.47507442925</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>1107.294608846549</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>1090.692682193264</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1005.011182304794</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>1091.389049910986</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>1084.484317037831</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1105.872461621172</v>
+        <v>980</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>1105.621554273704</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>1088.654282179756</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1053.412748132446</v>
+        <v>980</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1063.747994199009</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1085.544814255782</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>1095.080503443333</v>
+        <v>990</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>1090.882122364355</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>1059.093818922901</v>
+        <v>990</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>997.7428874632319</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>1076.456724245802</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>1148.56239881036</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1059.793514681608</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1099.791328218202</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>1130.362904116297</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>1109.173476588428</v>
+        <v>950</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1105.76196372331</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>1075.403154693494</v>
+        <v>960</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>1042.327846285956</v>
+        <v>990</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>1089.751882572744</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>1056.479469606652</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>1076.975037052777</v>
+        <v>960</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>1080.773759573373</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1085.333628168085</v>
+        <v>960</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>1120.909518743595</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1040.649110294447</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>1096.343990312384</v>
+        <v>960</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>1071.586125964796</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>1064.213380215736</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>1090.798613384687</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>1102.63100457945</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1094.875811597297</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>1034.014839931853</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>1128.817243345747</v>
+        <v>990</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>1069.382599485532</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>1093.830766970213</v>
+        <v>980</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>1115.548333511259</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1121.863830852622</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>1065.242955647161</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>1062.095663653885</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1063.956820982485</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>1086.102431697199</v>
+        <v>960</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>1019.780526896449</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>1077.205569615337</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1082.411507850216</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>997.0296041356274</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>1092.976640070826</v>
+        <v>960</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1075.17963076366</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>1061.282513961556</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>1123.401563615534</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>1064.922205864258</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1167.632140102198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>1106.852050138891</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1117.739592171236</v>
+        <v>960</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>1123.724072029564</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>1018.729116398311</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>1074.305876440707</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>1122.339346653278</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>1083.436115887915</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1138.024672423833</v>
+        <v>980</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>1089.995382479703</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1086.452876503346</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>1050.229534302826</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>1112.556398446002</v>
+        <v>970</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>1092.404115999078</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1119.483051773852</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1050.912095287167</v>
+        <v>970</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>1057.738798379303</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>1101.657231063645</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>1111.293086214881</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1041.445340237446</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1062.733424155675</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>1111.549899027464</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>1057.798921907202</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>1106.49681681766</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>1022.520666986042</v>
+        <v>960</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1032.661057699042</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>1073.141768563308</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>1128.356085528243</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>1077.713267303056</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>1079.572820071652</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>1088.947134796813</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>1070.788703231281</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1054.23755426533</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>1135.292605051818</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>1069.815676602857</v>
+        <v>980</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1155.405221431668</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>1109.651249370194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>1099.68353201654</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>1058.410765298809</v>
+        <v>960</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>1066.049706305696</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1103.855217626787</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>1098.839313170448</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>1097.340700256145</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>1034.623196521324</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>1087.225807177535</v>
+        <v>990</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1103.559109917969</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>1069.878632325376</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>1084.18606499121</v>
+        <v>960</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>1027.290912279941</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>1110.322883359888</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>1116.106943686184</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>1129.400366968541</v>
+        <v>960</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1140.976903070845</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>1076.230749668968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>1138.016187021746</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>1061.134998237083</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>1016.00707446422</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1096.781154335079</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>1107.80250168008</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>1081.866868404094</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>1125.421388257215</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1041.965620207948</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>1120.795721815187</v>
+        <v>960</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>1084.895770841771</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1150.666688358549</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>1043.122966518482</v>
+        <v>980</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>1066.474739892442</v>
+        <v>950</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1077.936735668651</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>1045.195975574132</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>993.2553824962541</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1090.498273371592</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>1091.424014090764</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>1036.823362588846</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>1099.547343286208</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>1080.195330844892</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>1059.399987201008</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1073.727015138889</v>
+        <v>950</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1039.998918508712</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>1083.404737005094</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>1050.809716598649</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1048.186581044845</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>1045.923835764554</v>
+        <v>980</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>1024.981549398831</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>1081.270073404196</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>1074.937672099749</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>1097.400535558848</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>1071.234605497367</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>1154.396718149791</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1106.295982429677</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>1098.185990143213</v>
+        <v>980</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1065.69219474118</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>1154.716684959226</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>1082.158498310745</v>
+        <v>990</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>1075.559927898697</v>
+        <v>990</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>1057.552616127401</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>1123.154355077793</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>1079.378288878846</v>
+        <v>990</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>1030.996311064928</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>1056.874039729488</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>1050.037726392836</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>1066.760015758269</v>
+        <v>980</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1044.178156513731</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1026.45196033832</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>1098.520422954226</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>1051.980990185359</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>1103.206606290781</v>
+        <v>990</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>1111.221427007805</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>1129.477691966939</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>1100.928304885262</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1130.176190655816</v>
+        <v>990</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1081.773567823074</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1153.326961565124</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1087.456043163469</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>1073.698650339753</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>1073.202489463528</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>1070.381879630087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>1106.771799480612</v>
+        <v>980</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>1114.470948162142</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>1067.308217310343</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>1038.280429209093</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>1119.861639202896</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1065.44575599013</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>986.7287229083184</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>1108.147301730661</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>1043.657440033225</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>1051.122737412875</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>1122.932519092403</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1063.248823601917</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>1102.834751074399</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1100.432355800728</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1089.183383705791</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>1133.188045174338</v>
+        <v>990</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>1046.533517559084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>1052.615596179159</v>
+        <v>960</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>1058.583640177253</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>1110.437525481319</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>1103.802562003967</v>
+        <v>990</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>1058.327398600802</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1125.604787986506</v>
+        <v>990</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>1121.015084490178</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>1115.707057451724</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>1059.588129155158</v>
+        <v>980</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>1062.017608282494</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1050.17459016488</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1036.279480941082</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>1070.82656149472</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>1111.830466748762</v>
+        <v>950</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>1108.411088460972</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>1101.179139434402</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>1116.998118747591</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>1075.9116993926</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1040.78301760232</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>1115.382516705557</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>1024.526264712308</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>1078.525066730364</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>1035.431415379339</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1145.541402860028</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>1104.387181494972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>1080.54831806093</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>1021.128180845269</v>
+        <v>980</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1079.804484520387</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>1117.9973641829</v>
+        <v>950</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>1071.068901637227</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1123.066721700465</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>1089.600251599785</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>1093.961619034912</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>1028.377480157591</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1012.576994870775</v>
+        <v>990</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>1130.58037458661</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>1102.112209136793</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>1106.591592667602</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1116.839486271989</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1109.427355929153</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>1090.25611925305</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>1119.120765414946</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="461">
@@ -4130,7 +4130,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1105.77011568172</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>1132.618163316457</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>1109.830164683759</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>1082.589027850004</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>1078.313993956101</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>1163.978370179257</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1060.169400258247</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>1104.524617510604</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>1127.202113162248</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>1101.794991005503</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1104.051232170195</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1097.969757886772</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>1129.21508553464</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>1078.052776070431</v>
+        <v>960</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1072.452369481343</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>1068.535899066128</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>1074.071339275593</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>1049.6674462551</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>1053.919246624481</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>1035.976299939097</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>1090.650639183084</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>1065.891986442216</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>1070.145138695399</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1091.126459055326</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>1076.562019806325</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>1119.790152247278</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>1088.79960940505</v>
+        <v>970</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1039.285678367864</v>
+        <v>950</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>1054.294608454279</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>1144.933581866031</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1058.041923187993</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>1027.715152822595</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>1068.751591510024</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>1121.387807493519</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>1064.819968479443</v>
+        <v>950</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1081.61476634185</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>1025.875590150039</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>1119.327073098896</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>1112.811391673525</v>
+        <v>980</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1093.638497965632</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1040.237390427585</v>
+        <v>990</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>1054.500688638318</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1096.539069780906</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>1175.285069305524</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>1094.598111086775</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>1088.514904747235</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>1076.435321767002</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>1037.76500359487</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>1069.673322693026</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1077.576954892535</v>
+        <v>960</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>1086.842075743053</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>1134.816914533215</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>1110.195003202538</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>1143.909018245558</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>1149.131149658919</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>1074.847921919866</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>1092.506544558218</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>1100.800206336457</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>1136.203418200198</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1003.023442916257</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>1158.667754046961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>1065.023748551128</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>1092.733880666406</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>1059.876472761823</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>1048.413835551163</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>1038.588767480707</v>
+        <v>970</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>1151.745351204138</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>1093.163588060898</v>
+        <v>950</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>1089.04842637179</v>
+        <v>960</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1074.804207657397</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>1166.216375133163</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>1077.837321446873</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>1064.62047031854</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>1072.781626709625</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1082.542608951955</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>1006.723496203732</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>1124.867933364631</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1075.83448339333</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1088.418589431786</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>1095.832301881788</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>1103.69193626886</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1114.183334995438</v>
+        <v>970</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>1047.816993436275</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1094.359114642416</v>
+        <v>950</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1057.203893648706</v>
+        <v>980</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1056.560111975466</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1095.647764878068</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1068.704016046501</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>1099.30730396275</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1074.110650902564</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>1085.484927906499</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>1072.699729519908</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>1142.474496468448</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>1090.552935775021</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>1069.01029661969</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1070.537471860735</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>1073.048091500767</v>
+        <v>970</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>1101.903480107938</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>1041.129169537454</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1102.607626616396</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1067.47391800142</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1042.573702213014</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>1066.357720611572</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1126.710976416459</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>1140.620168554208</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1156.77523462775</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>1084.3596053169</v>
+        <v>960</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1075.697600657301</v>
+        <v>950</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>1084.208402322366</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>1117.220694512427</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>1124.953268100856</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>1084.619022789017</v>
+        <v>970</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>1018.355000830951</v>
+        <v>980</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>1127.006010523637</v>
+        <v>980</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1124.489801305956</v>
+        <v>970</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>1086.806615903831</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1091.087839128336</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1008.277849489421</v>
+        <v>970</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>1123.862976159686</v>
+        <v>980</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>1095.354586282091</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>1080.895304679319</v>
+        <v>950</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>1060.83910295386</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1127.628644153001</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1121.924645438962</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>1134.389252280909</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1055.423174945155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>1120.249577537133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>1126.004272398324</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1091.722524624439</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>1093.75402851951</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>1098.695159174229</v>
+        <v>970</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>1152.771872487437</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>1109.890106320246</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1036.475016680422</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1091.826681970781</v>
+        <v>970</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>1141.433981050722</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1107.070876796692</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>1111.671694138623</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>1120.205727315692</v>
+        <v>990</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>1096.518034920664</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>1045.703856593782</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1117.379159830853</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1131.341055451509</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>1100.588607633783</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>1054.892350051853</v>
+        <v>960</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>1084.044750901607</v>
+        <v>960</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1125.259570408865</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1076.755558162656</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>1043.235913267205</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1047.448871797375</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>1055.769847982001</v>
+        <v>980</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>1059.155206699767</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>1106.667789047602</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>1093.356430559731</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>1051.811604992832</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>1114.602307310397</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>1062.905699501692</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>1129.698955800259</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>1083.250320265861</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1014.94299370178</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1062.661975435015</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>1064.442971980696</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1082.696858397892</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>1061.512619545059</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>1133.292242912277</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1049.852244048029</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>1104.270310487669</v>
+        <v>950</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>1023.15074907244</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>1002.662684246451</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>1035.65594178443</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>1060.90873519526</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>1070.223893011334</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>1074.207803098926</v>
+        <v>960</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>1181.255718823074</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1094.022603598557</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>1052.844126133367</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>1077.305756713475</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1068.047653397847</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>1096.840399826385</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>1115.022889855726</v>
+        <v>990</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>1124.242619687203</v>
+        <v>990</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>1068.246851728144</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>1087.839043430169</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1112.694523812517</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>1135.610356587108</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>1141.823784844565</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>1044.628939561317</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>1124.336193476629</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>1107.381057450139</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>1029.099403142539</v>
+        <v>950</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>1109.41008371327</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1082.107112544659</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>1095.55792810243</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1051.276371918912</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1030.699884699456</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>1096.247473631753</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1074.556036075551</v>
+        <v>970</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>1098.408381555211</v>
+        <v>980</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1066.328087209746</v>
+        <v>960</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>1067.690164396566</v>
+        <v>990</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>1075.340153788815</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1075.52290904371</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>1132.877992928118</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>1087.919041595997</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>1088.051251145089</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>1128.180579545492</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>1134.663217035539</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1144.204835268215</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>1055.629203364804</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1010.301582010042</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1067.070866272386</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1054.066506459899</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>1100.12933914127</v>
+        <v>970</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1097.750825741125</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>1124.609818245784</v>
+        <v>950</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1076.820981113007</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1081.19924874812</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>1094.246075735602</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1060.716445223943</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1046.189163010873</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1093.243617620699</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>1063.61609638446</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>1108.478754042126</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1110.721267607177</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>1061.428960703523</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1047.554743116106</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>1150.079051248785</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>1072.358890710004</v>
+        <v>950</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>1060.418590647387</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>1074.388807296865</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1064.756559250674</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>1044.758697981584</v>
+        <v>990</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>1095.211193119478</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1119.007444235984</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>1089.660710419318</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>1063.977930817387</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>1092.721826493265</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1100.564922703618</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>1087.998239214233</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>1071.530429545046</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1082.736102054443</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>1161.264398132615</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>1095.042161874524</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>1057.059483950485</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>1035.021490709184</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1078.48148099304</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>1055.45661835511</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1169.689898787633</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>1081.67354772301</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1101.275020562155</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1079.737710216451</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>1085.613127138028</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>1032.759246230158</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>1112.997507372533</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>1142.911079097072</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>1037.965164435396</v>
+        <v>950</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>1025.599617459085</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>1074.696928085494</v>
+        <v>970</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>1104.972667158668</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>1059.349383880646</v>
+        <v>960</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1049.2135374103</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>1097.592862718101</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>1056.154429946434</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>1093.018646250436</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>1089.827002167664</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1113.890055183947</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>1132.539481869313</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>1086.03475933249</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1029.736517717721</v>
+        <v>970</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1069.238675943355</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>1144.784024564937</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>1084.404980433073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>1078.750778784721</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>1137.535425018134</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>1070.613611097406</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>1159.672359767275</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>1079.511247609562</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>1112.339150119732</v>
+        <v>950</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>1026.828704467667</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>1082.225262132323</v>
+        <v>980</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>1116.657985620585</v>
+        <v>950</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>1076.048976893989</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>1053.345129727341</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1088.193919270821</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>1131.206544857352</v>
+        <v>990</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1083.873389646668</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>1076.101682318357</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1055.300126796041</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>1068.431032380305</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1068.895887166596</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>1099.125207483391</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1085.014325500074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1050.637284064618</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>1104.874757106749</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>1132.104882852118</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>1102.768212894097</v>
+        <v>970</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>1039.186819276522</v>
+        <v>990</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>1112.081156767973</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>1104.161111131925</v>
+        <v>980</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1111.433674697677</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1038.075987791115</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>1066.69660433942</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1092.617128136235</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1057.341480664406</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1049.580963171277</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>1063.805068417468</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>1113.034604581777</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>1060.582130608244</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>1046.921768577102</v>
+        <v>970</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>1091.862086752431</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>1086.181596757672</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1091.028080120279</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1109.640226063165</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1078.601592445707</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>1109.270772117325</v>
+        <v>970</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>1046.575335857372</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>1121.668015479911</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1095.759542870367</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>1132.259124270055</v>
+        <v>950</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>1103.092940156702</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>1075.088675731533</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>1066.536829501757</v>
+        <v>990</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>1122.149918975191</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>1138.558905049294</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1119.999263875996</v>
+        <v>950</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>1097.910777389608</v>
+        <v>980</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1016.814187852407</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>1067.927096563533</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1108.710605258242</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>1047.743268491297</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1024.63713779684</v>
+        <v>960</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1058.769152131848</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>1108.241987151505</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1087.373680822338</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>1131.018860197709</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>1145.627800974328</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>1072.848313130863</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1080.054348225368</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>1035.87751268266</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>1081.072367822667</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>1086.575075094496</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1118.393815249724</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1071.393949248625</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1127.819010021968</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>1081.410496031827</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>1127.539564657312</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>1079.169589708015</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>1077.415407743056</v>
+        <v>980</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>1072.091073541864</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>1084.973489011798</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>1105.121873014225</v>
+        <v>990</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>1006.027566275265</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1069.98671764486</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>1136.74198294501</v>
+        <v>980</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>1038.727131396181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>1105.434913427142</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>1072.296786368367</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>1170.924513562023</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>1091.510424261152</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1010.504332346157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>1033.389218392228</v>
+        <v>950</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>1146.796249995739</v>
+        <v>970</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>1130.053276500448</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>1079.070878042181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>1094.256152313438</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>1093.44210667876</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>1118.833080699584</v>
+        <v>960</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1126.231885276382</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>1083.529633123724</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>1113.142762901356</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>1047.19160738067</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>1067.80422626635</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1047.03866595441</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1060.241803815349</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>1114.91555497071</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>1105.161119888718</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>1089.965549236213</v>
+        <v>970</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>1038.888390541973</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1121.253472784618</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>1135.920191006376</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>1107.768698685862</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>1067.96195948973</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>1111.030964611981</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>1098.265965646854</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>1017.575194366118</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>1087.531728307142</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1115.822813494292</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1061.731214912153</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>1048.627545371004</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>1113.320101989382</v>
+        <v>980</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>1136.626848549485</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>1124.030978195763</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1013.011046601152</v>
+        <v>960</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>1062.291905793381</v>
+        <v>950</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>1106.041910247423</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>1039.710993896296</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>1073.411259864894</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1061.851395204019</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>1133.91648217306</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>1053.089274366338</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>1082.848137318928</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>1058.869462699642</v>
+        <v>960</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>1054.966917265328</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>1047.991746915458</v>
+        <v>990</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>1113.494822718258</v>
+        <v>980</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>1069.493767402931</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>1093.617203276277</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>1095.961956504812</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>1113.788643677981</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1030.679870417962</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>1102.369503952956</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>1116.320032820252</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>1079.866216919228</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>1081.372300973725</v>
+        <v>980</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>1111.968623117017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1110.843570656536</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>1094.618821584384</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>1015.608374140689</v>
+        <v>980</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>1059.662693686395</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>1086.733491298252</v>
+        <v>950</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1096.901990088074</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1064.305508118215</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>1023.955385164776</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>1052.395287953895</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>1045.055972451113</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>1049.392274097363</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>1070.976429974407</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1070.63759493706</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1116.231869120338</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>1105.266806807453</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1092.349010463531</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>1113.446340924571</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>1074.457581069471</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>1083.956398740325</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1040.476144637285</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>1101.104238844613</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>1099.845359562081</v>
+        <v>950</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>1126.516372938081</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>1083.222425104623</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>1045.454519801357</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>1082.912773991094</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1079.950675026113</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>1056.343699405104</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>1112.25362369708</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>1087.132302279225</v>
+        <v>980</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1135.901744087473</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>1001.1056324094</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>1108.965426211226</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>1072.02797670018</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1108.552288284824</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>1057.875770025961</v>
+        <v>990</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1037.075131546101</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>1061.334434972988</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>1101.432224733104</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>1115.349157807268</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1092.883759081542</v>
+        <v>970</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1078.823441338499</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1081.551107959527</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>1056.662183719207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>1086.372633242397</v>
+        <v>990</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>1078.183435321002</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>1096.409339529318</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1090.41298309129</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>1057.486449793088</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>1053.582735859752</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>1141.099967808275</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1041.607798894413</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1069.173180774776</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>1084.791237126205</v>
+        <v>960</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1054.609082362921</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1019.337847085003</v>
+        <v>990</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>1063.403215349914</v>
+        <v>990</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>1140.094054503844</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>1078.062478010415</v>
+        <v>980</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>1090.235656981476</v>
+        <v>970</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>1031.354243013516</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1102.467929366265</v>
+        <v>990</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>1076.26956455845</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>1094.447075794024</v>
+        <v>980</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>1031.796854328744</v>
+        <v>990</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>1072.587712452525</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1089.4107131593</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>1120.489787125465</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1042.039076328788</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>1058.120141442003</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>1110.996373350893</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1110.597283347318</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>1098.956265122022</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>1087.276907756634</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>1101.453803310422</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>1098.315343412822</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>1063.194207170838</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>1086.280734942814</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>1112.52659618418</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1114.310510433319</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>1021.950386161768</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>1110.075376106277</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>1080.100569160411</v>
+        <v>980</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>1042.831109999406</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>1073.5309179346</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>1085.347599749652</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>1052.533227272204</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>1122.582693951394</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1048.542171985408</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>1133.983466845377</v>
+        <v>970</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>1094.767239514607</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>1080.866073601622</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1104.533966302224</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>1139.509203805646</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>1059.95999221293</v>
+        <v>950</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>1106.257604065315</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>1083.158378876019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1178.188140587162</v>
+        <v>960</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1143.612524091978</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>1080.37428763015</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>1122.681181663076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>1077.494224258985</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>1095.511842184997</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>1065.99474948196</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>1009.434261714816</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>1080.309988686955</v>
+        <v>970</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>1065.757616849084</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>1111.747085263827</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>1073.342123966087</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>1062.992718121212</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>1062.432094253024</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>1013.851221684509</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1172.994596199462</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>1115.960246116862</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>1034.323396622195</v>
+        <v>970</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>1077.004776373551</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>1149.717134479163</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>1086.54547612775</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>1063.077928982075</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>1054.749006805971</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>1045.319896880659</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1078.942443416815</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1067.217137014985</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>1118.529716831014</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
